--- a/設計書/日誌システム_スケジュール.xlsx
+++ b/設計書/日誌システム_スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A147DE-54B0-D04F-8642-0512FC18CD53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{503FE66A-7882-DE43-94F8-9D89DCE13B5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="工程表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$BV$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$BV$154</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -154,40 +154,6 @@
       <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>共通レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>トップメニュー画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>日誌一覧画面</t>
-    <rPh sb="0" eb="2">
-      <t>ニッシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>日誌登録画面</t>
@@ -353,6 +319,248 @@
     <t>日誌修正完了画面</t>
     <rPh sb="0" eb="2">
       <t>ニッシカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>教員ログイン画面</t>
+    <rPh sb="0" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>学生ログイン画面</t>
+    <rPh sb="0" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>学生共通レイアウト</t>
+    <rPh sb="0" eb="9">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>学生トップメニュー画面</t>
+    <rPh sb="0" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>教員共通レイアウト</t>
+    <rPh sb="0" eb="9">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>教員トップメニュー画面</t>
+    <rPh sb="0" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日誌選択画面</t>
+    <rPh sb="0" eb="2">
+      <t>センタkイチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日誌選択画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント登録画面</t>
+    <rPh sb="0" eb="8">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント登録確認画面</t>
+    <rPh sb="0" eb="10">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント登録完了画面</t>
+    <rPh sb="0" eb="10">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント削除確認画面</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント削除完了画面</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント修正画面</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント修正確認画面</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント修正完了画面</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日誌削除確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日誌削除完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日誌修正画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日誌修正確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日誌修正完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>教員ログイン画面</t>
+    <rPh sb="0" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>教員トップメニュー画面</t>
+    <rPh sb="0" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コメント選択画面</t>
+    <rPh sb="0" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント登録完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント削除確認画面</t>
+    <rPh sb="0" eb="10">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント削除完了画面</t>
+    <rPh sb="0" eb="10">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント修正画面</t>
+    <rPh sb="0" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント修正確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コメント修正完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -743,7 +951,839 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="147">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightDown">
+          <fgColor theme="0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1606,13 +2646,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BV126"/>
+  <dimension ref="A1:BV154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="13" ySplit="4" topLeftCell="N22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="14"/>
@@ -2706,7 +3746,7 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -2784,7 +3824,7 @@
       <c r="A7"/>
       <c r="B7" s="26"/>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -2870,7 +3910,7 @@
       <c r="A8"/>
       <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -2956,7 +3996,7 @@
       <c r="A9"/>
       <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -3034,7 +4074,7 @@
       <c r="A10"/>
       <c r="B10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
@@ -3051,7 +4091,7 @@
         <v>43762</v>
       </c>
       <c r="K10" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="25"/>
@@ -3121,7 +4161,7 @@
       <c r="A11"/>
       <c r="B11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
@@ -3138,7 +4178,7 @@
         <v>43762</v>
       </c>
       <c r="K11" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="25"/>
@@ -3208,15 +4248,15 @@
       <c r="A12"/>
       <c r="B12" s="26"/>
       <c r="D12" s="27" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="22">
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="H12" s="22">
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="I12" s="22">
         <v>43759</v>
@@ -3225,7 +4265,7 @@
         <v>43762</v>
       </c>
       <c r="K12" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="25"/>
@@ -3295,7 +4335,7 @@
       <c r="A13"/>
       <c r="B13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
@@ -3303,7 +4343,7 @@
         <v>43762</v>
       </c>
       <c r="H13" s="22">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="I13" s="22">
         <v>43759</v>
@@ -3312,7 +4352,7 @@
         <v>43762</v>
       </c>
       <c r="K13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="25"/>
@@ -3382,15 +4422,15 @@
       <c r="A14"/>
       <c r="B14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="22">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="H14" s="22">
-        <v>43766</v>
+        <v>43762</v>
       </c>
       <c r="I14" s="22">
         <v>43759</v>
@@ -3399,7 +4439,7 @@
         <v>43762</v>
       </c>
       <c r="K14" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="24"/>
       <c r="M14" s="25"/>
@@ -3469,15 +4509,15 @@
       <c r="A15"/>
       <c r="B15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
       <c r="G15" s="22">
-        <v>43766</v>
+        <v>43762</v>
       </c>
       <c r="H15" s="22">
-        <v>43766</v>
+        <v>43762</v>
       </c>
       <c r="I15" s="22">
         <v>43759</v>
@@ -3486,7 +4526,7 @@
         <v>43762</v>
       </c>
       <c r="K15" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
@@ -3556,15 +4596,15 @@
       <c r="A16"/>
       <c r="B16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
       <c r="G16" s="22">
-        <v>43767</v>
+        <v>43763</v>
       </c>
       <c r="H16" s="22">
-        <v>43767</v>
+        <v>43763</v>
       </c>
       <c r="I16" s="22">
         <v>43759</v>
@@ -3573,7 +4613,7 @@
         <v>43762</v>
       </c>
       <c r="K16" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="25"/>
@@ -3643,15 +4683,15 @@
       <c r="A17"/>
       <c r="B17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="28"/>
       <c r="G17" s="22">
-        <v>43766</v>
+        <v>43763</v>
       </c>
       <c r="H17" s="22">
-        <v>43766</v>
+        <v>43763</v>
       </c>
       <c r="I17" s="22">
         <v>43759</v>
@@ -3660,7 +4700,7 @@
         <v>43762</v>
       </c>
       <c r="K17" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="25"/>
@@ -3730,15 +4770,15 @@
       <c r="A18"/>
       <c r="B18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="28"/>
       <c r="G18" s="22">
-        <v>43767</v>
+        <v>43763</v>
       </c>
       <c r="H18" s="22">
-        <v>43767</v>
+        <v>43763</v>
       </c>
       <c r="I18" s="22">
         <v>43759</v>
@@ -3747,7 +4787,7 @@
         <v>43762</v>
       </c>
       <c r="K18" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
@@ -3817,15 +4857,15 @@
       <c r="A19"/>
       <c r="B19" s="26"/>
       <c r="D19" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
       <c r="G19" s="22">
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="H19" s="22">
-        <v>43766</v>
+        <v>43764</v>
       </c>
       <c r="I19" s="22">
         <v>43759</v>
@@ -3834,7 +4874,7 @@
         <v>43762</v>
       </c>
       <c r="K19" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="25"/>
@@ -3904,15 +4944,15 @@
       <c r="A20"/>
       <c r="B20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="22">
-        <v>43766</v>
+        <v>43764</v>
       </c>
       <c r="H20" s="22">
-        <v>43766</v>
+        <v>43764</v>
       </c>
       <c r="I20" s="22">
         <v>43759</v>
@@ -3921,7 +4961,7 @@
         <v>43762</v>
       </c>
       <c r="K20" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
@@ -3991,15 +5031,15 @@
       <c r="A21"/>
       <c r="B21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="22">
-        <v>43767</v>
+        <v>43764</v>
       </c>
       <c r="H21" s="22">
-        <v>43767</v>
+        <v>43764</v>
       </c>
       <c r="I21" s="22">
         <v>43759</v>
@@ -4008,7 +5048,7 @@
         <v>43762</v>
       </c>
       <c r="K21" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
@@ -4075,21 +5115,28 @@
       <c r="BV21" s="11"/>
     </row>
     <row r="22" spans="1:74" s="8" customFormat="1">
-      <c r="A22">
-        <v>1</v>
-      </c>
+      <c r="A22"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="30"/>
+      <c r="G22" s="22">
+        <v>43765</v>
+      </c>
+      <c r="H22" s="22">
+        <v>43765</v>
+      </c>
+      <c r="I22" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J22" s="22">
+        <v>43762</v>
+      </c>
+      <c r="K22" s="30">
+        <v>1</v>
+      </c>
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
       <c r="N22" s="11"/>
@@ -4158,22 +5205,24 @@
       <c r="A23"/>
       <c r="B23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="22">
-        <v>43767</v>
+        <v>43765</v>
       </c>
       <c r="H23" s="22">
-        <v>43768</v>
+        <v>43765</v>
       </c>
       <c r="I23" s="22">
-        <v>43766</v>
-      </c>
-      <c r="J23" s="22"/>
+        <v>43759</v>
+      </c>
+      <c r="J23" s="22">
+        <v>43762</v>
+      </c>
       <c r="K23" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="25"/>
@@ -4242,22 +5291,25 @@
     <row r="24" spans="1:74" s="8" customFormat="1">
       <c r="A24"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="22">
-        <v>43768</v>
+        <v>43765</v>
       </c>
       <c r="H24" s="22">
-        <v>43769</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+        <v>43765</v>
+      </c>
+      <c r="I24" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J24" s="22">
+        <v>43762</v>
+      </c>
       <c r="K24" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="25"/>
@@ -4325,16 +5377,27 @@
     </row>
     <row r="25" spans="1:74" s="8" customFormat="1">
       <c r="A25"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="D25" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="30"/>
+      <c r="G25" s="22">
+        <v>43765</v>
+      </c>
+      <c r="H25" s="22">
+        <v>43765</v>
+      </c>
+      <c r="I25" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J25" s="22">
+        <v>43762</v>
+      </c>
+      <c r="K25" s="30">
+        <v>1</v>
+      </c>
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
       <c r="N25" s="11"/>
@@ -4401,18 +5464,27 @@
     </row>
     <row r="26" spans="1:74" s="8" customFormat="1">
       <c r="A26"/>
-      <c r="B26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="D26" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="30"/>
+      <c r="G26" s="22">
+        <v>43766</v>
+      </c>
+      <c r="H26" s="22">
+        <v>43766</v>
+      </c>
+      <c r="I26" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J26" s="22">
+        <v>43762</v>
+      </c>
+      <c r="K26" s="30">
+        <v>1</v>
+      </c>
       <c r="L26" s="24"/>
       <c r="M26" s="25"/>
       <c r="N26" s="11"/>
@@ -4478,21 +5550,28 @@
       <c r="BV26" s="11"/>
     </row>
     <row r="27" spans="1:74" s="8" customFormat="1">
-      <c r="A27">
-        <v>1</v>
-      </c>
+      <c r="A27"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="30"/>
+      <c r="G27" s="22">
+        <v>43766</v>
+      </c>
+      <c r="H27" s="22">
+        <v>43766</v>
+      </c>
+      <c r="I27" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J27" s="22">
+        <v>43762</v>
+      </c>
+      <c r="K27" s="30">
+        <v>1</v>
+      </c>
       <c r="L27" s="24"/>
       <c r="M27" s="25"/>
       <c r="N27" s="11"/>
@@ -4559,27 +5638,26 @@
     </row>
     <row r="28" spans="1:74" s="8" customFormat="1">
       <c r="A28"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
-        <v>27</v>
+      <c r="B28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="22">
-        <v>43770</v>
+        <v>43766</v>
       </c>
       <c r="H28" s="22">
-        <v>43770</v>
+        <v>43766</v>
       </c>
       <c r="I28" s="22">
-        <v>43766</v>
+        <v>43759</v>
       </c>
       <c r="J28" s="22">
-        <v>43766</v>
+        <v>43762</v>
       </c>
       <c r="K28" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="25"/>
@@ -4647,27 +5725,26 @@
     </row>
     <row r="29" spans="1:74" s="8" customFormat="1">
       <c r="A29"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
-        <v>16</v>
+      <c r="B29" s="19"/>
+      <c r="D29" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
       <c r="G29" s="22">
-        <v>43774</v>
+        <v>43766</v>
       </c>
       <c r="H29" s="22">
-        <v>43774</v>
+        <v>43766</v>
       </c>
       <c r="I29" s="22">
-        <v>43766</v>
+        <v>43759</v>
       </c>
       <c r="J29" s="22">
-        <v>43766</v>
+        <v>43762</v>
       </c>
       <c r="K29" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="25"/>
@@ -4735,27 +5812,26 @@
     </row>
     <row r="30" spans="1:74" s="8" customFormat="1">
       <c r="A30"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="27" t="s">
-        <v>17</v>
+      <c r="B30" s="19"/>
+      <c r="D30" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
       <c r="G30" s="22">
-        <v>43775</v>
+        <v>43767</v>
       </c>
       <c r="H30" s="22">
-        <v>43775</v>
+        <v>43767</v>
       </c>
       <c r="I30" s="22">
-        <v>43766</v>
+        <v>43759</v>
       </c>
       <c r="J30" s="22">
-        <v>43766</v>
+        <v>43762</v>
       </c>
       <c r="K30" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="25"/>
@@ -4824,22 +5900,25 @@
     <row r="31" spans="1:74" s="8" customFormat="1">
       <c r="A31"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="20"/>
       <c r="D31" s="27" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
       <c r="G31" s="22">
-        <v>43776</v>
+        <v>43767</v>
       </c>
       <c r="H31" s="22">
-        <v>43780</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+        <v>43767</v>
+      </c>
+      <c r="I31" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J31" s="22">
+        <v>43762</v>
+      </c>
       <c r="K31" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="24"/>
       <c r="M31" s="25"/>
@@ -4907,23 +5986,26 @@
     </row>
     <row r="32" spans="1:74" s="8" customFormat="1">
       <c r="A32"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="27" t="s">
-        <v>19</v>
+      <c r="B32" s="19"/>
+      <c r="D32" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
       <c r="G32" s="22">
-        <v>43781</v>
+        <v>43767</v>
       </c>
       <c r="H32" s="22">
-        <v>43787</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+        <v>43767</v>
+      </c>
+      <c r="I32" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J32" s="22">
+        <v>43762</v>
+      </c>
       <c r="K32" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="24"/>
       <c r="M32" s="25"/>
@@ -4991,23 +6073,26 @@
     </row>
     <row r="33" spans="1:74" s="8" customFormat="1">
       <c r="A33"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="D33" s="20" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="22">
-        <v>43788</v>
+        <v>43767</v>
       </c>
       <c r="H33" s="22">
-        <v>43794</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+        <v>43767</v>
+      </c>
+      <c r="I33" s="22">
+        <v>43759</v>
+      </c>
+      <c r="J33" s="22">
+        <v>43762</v>
+      </c>
       <c r="K33" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="24"/>
       <c r="M33" s="25"/>
@@ -5074,25 +6159,21 @@
       <c r="BV33" s="11"/>
     </row>
     <row r="34" spans="1:74" s="8" customFormat="1">
-      <c r="A34"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="22">
-        <v>43795</v>
-      </c>
-      <c r="H34" s="22">
-        <v>43797</v>
-      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="30">
-        <v>0</v>
-      </c>
+      <c r="K34" s="30"/>
       <c r="L34" s="24"/>
       <c r="M34" s="25"/>
       <c r="N34" s="11"/>
@@ -5158,21 +6239,26 @@
       <c r="BV34" s="11"/>
     </row>
     <row r="35" spans="1:74" s="8" customFormat="1">
-      <c r="A35">
-        <v>1</v>
-      </c>
+      <c r="A35"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="G35" s="22">
+        <v>43767</v>
+      </c>
+      <c r="H35" s="22">
+        <v>43768</v>
+      </c>
+      <c r="I35" s="22">
+        <v>43766</v>
+      </c>
       <c r="J35" s="22"/>
-      <c r="K35" s="30"/>
+      <c r="K35" s="30">
+        <v>0.3</v>
+      </c>
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
       <c r="N35" s="11"/>
@@ -5242,15 +6328,15 @@
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="22">
-        <v>43801</v>
+        <v>43768</v>
       </c>
       <c r="H36" s="22">
-        <v>43805</v>
+        <v>43769</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -5323,8 +6409,8 @@
     </row>
     <row r="37" spans="1:74" s="8" customFormat="1">
       <c r="A37"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
@@ -5398,13 +6484,11 @@
       <c r="BV37" s="11"/>
     </row>
     <row r="38" spans="1:74" s="8" customFormat="1">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="20"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
@@ -5478,20 +6562,18 @@
       <c r="BV38" s="11"/>
     </row>
     <row r="39" spans="1:74" s="8" customFormat="1">
-      <c r="A39"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="22">
-        <v>43808</v>
-      </c>
-      <c r="H39" s="22">
-        <v>43816</v>
-      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="30"/>
@@ -5562,15 +6644,27 @@
     <row r="40" spans="1:74" s="8" customFormat="1">
       <c r="A40"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="s">
+        <v>23</v>
+      </c>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="30"/>
+      <c r="G40" s="22">
+        <v>43770</v>
+      </c>
+      <c r="H40" s="22">
+        <v>43770</v>
+      </c>
+      <c r="I40" s="22">
+        <v>43766</v>
+      </c>
+      <c r="J40" s="22">
+        <v>43766</v>
+      </c>
+      <c r="K40" s="30">
+        <v>0</v>
+      </c>
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
       <c r="N40" s="11"/>
@@ -5638,15 +6732,25 @@
     <row r="41" spans="1:74" s="8" customFormat="1">
       <c r="A41"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="G41" s="22">
+        <v>43774</v>
+      </c>
+      <c r="H41" s="22">
+        <v>43774</v>
+      </c>
+      <c r="I41" s="22">
+        <v>43766</v>
+      </c>
       <c r="J41" s="22"/>
-      <c r="K41" s="30"/>
+      <c r="K41" s="30">
+        <v>0</v>
+      </c>
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
       <c r="N41" s="11"/>
@@ -5714,15 +6818,25 @@
     <row r="42" spans="1:74" s="8" customFormat="1">
       <c r="A42"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="G42" s="22">
+        <v>43775</v>
+      </c>
+      <c r="H42" s="22">
+        <v>43775</v>
+      </c>
+      <c r="I42" s="22">
+        <v>43766</v>
+      </c>
       <c r="J42" s="22"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="30">
+        <v>0</v>
+      </c>
       <c r="L42" s="24"/>
       <c r="M42" s="25"/>
       <c r="N42" s="11"/>
@@ -5790,15 +6904,25 @@
     <row r="43" spans="1:74" s="8" customFormat="1">
       <c r="A43"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="G43" s="22">
+        <v>43776</v>
+      </c>
+      <c r="H43" s="22">
+        <v>43777</v>
+      </c>
+      <c r="I43" s="22">
+        <v>43767</v>
+      </c>
       <c r="J43" s="22"/>
-      <c r="K43" s="30"/>
+      <c r="K43" s="30">
+        <v>0</v>
+      </c>
       <c r="L43" s="24"/>
       <c r="M43" s="25"/>
       <c r="N43" s="11"/>
@@ -5866,15 +6990,25 @@
     <row r="44" spans="1:74" s="8" customFormat="1">
       <c r="A44"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="G44" s="22">
+        <v>43778</v>
+      </c>
+      <c r="H44" s="22">
+        <v>43779</v>
+      </c>
+      <c r="I44" s="22">
+        <v>43767</v>
+      </c>
       <c r="J44" s="22"/>
-      <c r="K44" s="30"/>
+      <c r="K44" s="30">
+        <v>0</v>
+      </c>
       <c r="L44" s="24"/>
       <c r="M44" s="25"/>
       <c r="N44" s="11"/>
@@ -5942,15 +7076,25 @@
     <row r="45" spans="1:74" s="8" customFormat="1">
       <c r="A45"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="G45" s="22">
+        <v>43780</v>
+      </c>
+      <c r="H45" s="22">
+        <v>43780</v>
+      </c>
+      <c r="I45" s="22">
+        <v>43767</v>
+      </c>
       <c r="J45" s="22"/>
-      <c r="K45" s="30"/>
+      <c r="K45" s="30">
+        <v>0</v>
+      </c>
       <c r="L45" s="24"/>
       <c r="M45" s="25"/>
       <c r="N45" s="11"/>
@@ -6017,16 +7161,26 @@
     </row>
     <row r="46" spans="1:74" s="8" customFormat="1">
       <c r="A46"/>
-      <c r="B46" s="26"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="27"/>
+      <c r="D46" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="G46" s="22">
+        <v>43781</v>
+      </c>
+      <c r="H46" s="22">
+        <v>43781</v>
+      </c>
+      <c r="I46" s="22">
+        <v>43767</v>
+      </c>
       <c r="J46" s="22"/>
-      <c r="K46" s="30"/>
+      <c r="K46" s="30">
+        <v>0</v>
+      </c>
       <c r="L46" s="24"/>
       <c r="M46" s="25"/>
       <c r="N46" s="11"/>
@@ -6095,14 +7249,24 @@
       <c r="A47"/>
       <c r="B47" s="26"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="27"/>
+      <c r="D47" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="22">
+        <v>43782</v>
+      </c>
+      <c r="H47" s="22">
+        <v>43783</v>
+      </c>
+      <c r="I47" s="22">
+        <v>43768</v>
+      </c>
       <c r="J47" s="22"/>
-      <c r="K47" s="30"/>
+      <c r="K47" s="30">
+        <v>0</v>
+      </c>
       <c r="L47" s="24"/>
       <c r="M47" s="25"/>
       <c r="N47" s="11"/>
@@ -6169,16 +7333,26 @@
     </row>
     <row r="48" spans="1:74" s="8" customFormat="1">
       <c r="A48"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="27"/>
+      <c r="D48" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="G48" s="22">
+        <v>43784</v>
+      </c>
+      <c r="H48" s="22">
+        <v>43784</v>
+      </c>
+      <c r="I48" s="22">
+        <v>43768</v>
+      </c>
       <c r="J48" s="22"/>
-      <c r="K48" s="30"/>
+      <c r="K48" s="30">
+        <v>0</v>
+      </c>
       <c r="L48" s="24"/>
       <c r="M48" s="25"/>
       <c r="N48" s="11"/>
@@ -6246,15 +7420,23 @@
     <row r="49" spans="1:74" s="8" customFormat="1">
       <c r="A49"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="G49" s="22">
+        <v>43785</v>
+      </c>
+      <c r="H49" s="22">
+        <v>43786</v>
+      </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="30"/>
+      <c r="K49" s="30">
+        <v>0</v>
+      </c>
       <c r="L49" s="24"/>
       <c r="M49" s="25"/>
       <c r="N49" s="11"/>
@@ -6322,15 +7504,23 @@
     <row r="50" spans="1:74" s="8" customFormat="1">
       <c r="A50"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="G50" s="22">
+        <v>43787</v>
+      </c>
+      <c r="H50" s="22">
+        <v>43787</v>
+      </c>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="30">
+        <v>0</v>
+      </c>
       <c r="L50" s="24"/>
       <c r="M50" s="25"/>
       <c r="N50" s="11"/>
@@ -6397,16 +7587,24 @@
     </row>
     <row r="51" spans="1:74" s="8" customFormat="1">
       <c r="A51"/>
-      <c r="B51" s="26"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="27"/>
+      <c r="D51" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="G51" s="22">
+        <v>43788</v>
+      </c>
+      <c r="H51" s="22">
+        <v>43788</v>
+      </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="30"/>
+      <c r="K51" s="30">
+        <v>0</v>
+      </c>
       <c r="L51" s="24"/>
       <c r="M51" s="25"/>
       <c r="N51" s="11"/>
@@ -6474,15 +7672,23 @@
     <row r="52" spans="1:74" s="8" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="G52" s="22">
+        <v>43789</v>
+      </c>
+      <c r="H52" s="22">
+        <v>43789</v>
+      </c>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="30"/>
+      <c r="K52" s="30">
+        <v>0</v>
+      </c>
       <c r="L52" s="24"/>
       <c r="M52" s="25"/>
       <c r="N52" s="11"/>
@@ -6551,14 +7757,22 @@
       <c r="A53"/>
       <c r="B53" s="26"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="27"/>
+      <c r="D53" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="G53" s="22">
+        <v>43790</v>
+      </c>
+      <c r="H53" s="22">
+        <v>43790</v>
+      </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="30"/>
+      <c r="K53" s="30">
+        <v>0</v>
+      </c>
       <c r="L53" s="24"/>
       <c r="M53" s="25"/>
       <c r="N53" s="11"/>
@@ -6626,15 +7840,23 @@
     <row r="54" spans="1:74" s="8" customFormat="1">
       <c r="A54"/>
       <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="G54" s="22">
+        <v>43791</v>
+      </c>
+      <c r="H54" s="22">
+        <v>43792</v>
+      </c>
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
-      <c r="K54" s="30"/>
+      <c r="K54" s="30">
+        <v>0</v>
+      </c>
       <c r="L54" s="24"/>
       <c r="M54" s="25"/>
       <c r="N54" s="11"/>
@@ -6702,15 +7924,23 @@
     <row r="55" spans="1:74" s="8" customFormat="1">
       <c r="A55"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="G55" s="22">
+        <v>43793</v>
+      </c>
+      <c r="H55" s="22">
+        <v>43794</v>
+      </c>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="30"/>
+      <c r="K55" s="30">
+        <v>0</v>
+      </c>
       <c r="L55" s="24"/>
       <c r="M55" s="25"/>
       <c r="N55" s="11"/>
@@ -6779,14 +8009,22 @@
       <c r="A56"/>
       <c r="B56" s="26"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="27"/>
+      <c r="D56" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="E56" s="27"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="G56" s="22">
+        <v>43795</v>
+      </c>
+      <c r="H56" s="22">
+        <v>43795</v>
+      </c>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
-      <c r="K56" s="30"/>
+      <c r="K56" s="30">
+        <v>0</v>
+      </c>
       <c r="L56" s="24"/>
       <c r="M56" s="25"/>
       <c r="N56" s="11"/>
@@ -6853,16 +8091,24 @@
     </row>
     <row r="57" spans="1:74" s="8" customFormat="1">
       <c r="A57"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="27"/>
+      <c r="D57" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E57" s="27"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="G57" s="22">
+        <v>43796</v>
+      </c>
+      <c r="H57" s="22">
+        <v>43796</v>
+      </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="30">
+        <v>0</v>
+      </c>
       <c r="L57" s="24"/>
       <c r="M57" s="25"/>
       <c r="N57" s="11"/>
@@ -6931,14 +8177,22 @@
       <c r="A58"/>
       <c r="B58" s="26"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="27"/>
+      <c r="D58" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="E58" s="27"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="G58" s="22">
+        <v>43797</v>
+      </c>
+      <c r="H58" s="22">
+        <v>43797</v>
+      </c>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
-      <c r="K58" s="30"/>
+      <c r="K58" s="30">
+        <v>0</v>
+      </c>
       <c r="L58" s="24"/>
       <c r="M58" s="25"/>
       <c r="N58" s="11"/>
@@ -7005,16 +8259,24 @@
     </row>
     <row r="59" spans="1:74" s="8" customFormat="1">
       <c r="A59"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="G59" s="22">
+        <v>43798</v>
+      </c>
+      <c r="H59" s="22">
+        <v>43798</v>
+      </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
-      <c r="K59" s="30"/>
+      <c r="K59" s="30">
+        <v>0</v>
+      </c>
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
       <c r="N59" s="11"/>
@@ -7082,15 +8344,23 @@
     <row r="60" spans="1:74" s="8" customFormat="1">
       <c r="A60"/>
       <c r="B60" s="26"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="G60" s="22">
+        <v>43798</v>
+      </c>
+      <c r="H60" s="22">
+        <v>43799</v>
+      </c>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
-      <c r="K60" s="30"/>
+      <c r="K60" s="30">
+        <v>0</v>
+      </c>
       <c r="L60" s="24"/>
       <c r="M60" s="25"/>
       <c r="N60" s="11"/>
@@ -7158,15 +8428,23 @@
     <row r="61" spans="1:74" s="8" customFormat="1">
       <c r="A61"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="G61" s="22">
+        <v>43800</v>
+      </c>
+      <c r="H61" s="22">
+        <v>43800</v>
+      </c>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="30">
+        <v>0</v>
+      </c>
       <c r="L61" s="24"/>
       <c r="M61" s="25"/>
       <c r="N61" s="11"/>
@@ -7233,16 +8511,24 @@
     </row>
     <row r="62" spans="1:74" s="8" customFormat="1">
       <c r="A62"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="E62" s="27"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="G62" s="22">
+        <v>43800</v>
+      </c>
+      <c r="H62" s="22">
+        <v>43800</v>
+      </c>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="30">
+        <v>0</v>
+      </c>
       <c r="L62" s="24"/>
       <c r="M62" s="25"/>
       <c r="N62" s="11"/>
@@ -7308,9 +8594,13 @@
       <c r="BV62" s="11"/>
     </row>
     <row r="63" spans="1:74" s="8" customFormat="1">
-      <c r="A63"/>
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" s="26"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
@@ -7386,15 +8676,23 @@
     <row r="64" spans="1:74" s="8" customFormat="1">
       <c r="A64"/>
       <c r="B64" s="26"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="22">
+        <v>43801</v>
+      </c>
+      <c r="H64" s="22">
+        <v>43805</v>
+      </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
-      <c r="K64" s="30"/>
+      <c r="K64" s="30">
+        <v>0</v>
+      </c>
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
       <c r="N64" s="11"/>
@@ -7462,7 +8760,7 @@
     <row r="65" spans="1:74" s="8" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="26"/>
-      <c r="C65" s="20"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
@@ -7536,9 +8834,13 @@
       <c r="BV65" s="11"/>
     </row>
     <row r="66" spans="1:74" s="8" customFormat="1">
-      <c r="A66"/>
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" s="26"/>
-      <c r="C66" s="20"/>
+      <c r="C66" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="28"/>
@@ -7614,12 +8916,18 @@
     <row r="67" spans="1:74" s="8" customFormat="1">
       <c r="A67"/>
       <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="E67" s="27"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="G67" s="22">
+        <v>43808</v>
+      </c>
+      <c r="H67" s="22">
+        <v>43816</v>
+      </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="30"/>
@@ -7690,7 +8998,7 @@
     <row r="68" spans="1:74" s="8" customFormat="1">
       <c r="A68"/>
       <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
@@ -7766,7 +9074,7 @@
     <row r="69" spans="1:74" s="8" customFormat="1">
       <c r="A69"/>
       <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="28"/>
@@ -7850,7 +9158,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="23"/>
+      <c r="K70" s="30"/>
       <c r="L70" s="24"/>
       <c r="M70" s="25"/>
       <c r="N70" s="11"/>
@@ -7915,2133 +9223,2133 @@
       <c r="BU70" s="11"/>
       <c r="BV70" s="11"/>
     </row>
-    <row r="71" spans="1:74" s="3" customFormat="1">
+    <row r="71" spans="1:74" s="8" customFormat="1">
       <c r="A71"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="5"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-      <c r="AP71" s="5"/>
-      <c r="AQ71" s="5"/>
-      <c r="AR71" s="5"/>
-      <c r="AS71" s="5"/>
-      <c r="AT71" s="5"/>
-      <c r="AU71" s="5"/>
-      <c r="AV71" s="5"/>
-      <c r="AW71" s="5"/>
-      <c r="AX71" s="5"/>
-      <c r="AY71" s="5"/>
-      <c r="AZ71" s="5"/>
-      <c r="BA71" s="5"/>
-      <c r="BB71" s="5"/>
-      <c r="BC71" s="5"/>
-      <c r="BD71" s="5"/>
-      <c r="BE71" s="5"/>
-      <c r="BF71" s="5"/>
-      <c r="BG71" s="5"/>
-      <c r="BH71" s="5"/>
-      <c r="BI71" s="5"/>
-      <c r="BJ71" s="5"/>
-      <c r="BK71" s="5"/>
-      <c r="BL71" s="5"/>
-      <c r="BM71" s="5"/>
-      <c r="BN71" s="5"/>
-      <c r="BO71" s="5"/>
-      <c r="BP71" s="5"/>
-      <c r="BQ71" s="5"/>
-      <c r="BR71" s="5"/>
-      <c r="BS71" s="5"/>
-      <c r="BT71" s="5"/>
-      <c r="BU71" s="5"/>
-      <c r="BV71" s="5"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="11"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="11"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="11"/>
+      <c r="AV71" s="11"/>
+      <c r="AW71" s="11"/>
+      <c r="AX71" s="11"/>
+      <c r="AY71" s="11"/>
+      <c r="AZ71" s="11"/>
+      <c r="BA71" s="11"/>
+      <c r="BB71" s="11"/>
+      <c r="BC71" s="11"/>
+      <c r="BD71" s="11"/>
+      <c r="BE71" s="11"/>
+      <c r="BF71" s="11"/>
+      <c r="BG71" s="11"/>
+      <c r="BH71" s="11"/>
+      <c r="BI71" s="11"/>
+      <c r="BJ71" s="11"/>
+      <c r="BK71" s="11"/>
+      <c r="BL71" s="11"/>
+      <c r="BM71" s="11"/>
+      <c r="BN71" s="11"/>
+      <c r="BO71" s="11"/>
+      <c r="BP71" s="11"/>
+      <c r="BQ71" s="11"/>
+      <c r="BR71" s="11"/>
+      <c r="BS71" s="11"/>
+      <c r="BT71" s="11"/>
+      <c r="BU71" s="11"/>
+      <c r="BV71" s="11"/>
     </row>
-    <row r="72" spans="1:74" s="3" customFormat="1">
+    <row r="72" spans="1:74" s="8" customFormat="1">
       <c r="A72"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="5"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-      <c r="AP72" s="5"/>
-      <c r="AQ72" s="5"/>
-      <c r="AR72" s="5"/>
-      <c r="AS72" s="5"/>
-      <c r="AT72" s="5"/>
-      <c r="AU72" s="5"/>
-      <c r="AV72" s="5"/>
-      <c r="AW72" s="5"/>
-      <c r="AX72" s="5"/>
-      <c r="AY72" s="5"/>
-      <c r="AZ72" s="5"/>
-      <c r="BA72" s="5"/>
-      <c r="BB72" s="5"/>
-      <c r="BC72" s="5"/>
-      <c r="BD72" s="5"/>
-      <c r="BE72" s="5"/>
-      <c r="BF72" s="5"/>
-      <c r="BG72" s="5"/>
-      <c r="BH72" s="5"/>
-      <c r="BI72" s="5"/>
-      <c r="BJ72" s="5"/>
-      <c r="BK72" s="5"/>
-      <c r="BL72" s="5"/>
-      <c r="BM72" s="5"/>
-      <c r="BN72" s="5"/>
-      <c r="BO72" s="5"/>
-      <c r="BP72" s="5"/>
-      <c r="BQ72" s="5"/>
-      <c r="BR72" s="5"/>
-      <c r="BS72" s="5"/>
-      <c r="BT72" s="5"/>
-      <c r="BU72" s="5"/>
-      <c r="BV72" s="5"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+      <c r="AN72" s="11"/>
+      <c r="AO72" s="11"/>
+      <c r="AP72" s="11"/>
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="11"/>
+      <c r="AS72" s="11"/>
+      <c r="AT72" s="11"/>
+      <c r="AU72" s="11"/>
+      <c r="AV72" s="11"/>
+      <c r="AW72" s="11"/>
+      <c r="AX72" s="11"/>
+      <c r="AY72" s="11"/>
+      <c r="AZ72" s="11"/>
+      <c r="BA72" s="11"/>
+      <c r="BB72" s="11"/>
+      <c r="BC72" s="11"/>
+      <c r="BD72" s="11"/>
+      <c r="BE72" s="11"/>
+      <c r="BF72" s="11"/>
+      <c r="BG72" s="11"/>
+      <c r="BH72" s="11"/>
+      <c r="BI72" s="11"/>
+      <c r="BJ72" s="11"/>
+      <c r="BK72" s="11"/>
+      <c r="BL72" s="11"/>
+      <c r="BM72" s="11"/>
+      <c r="BN72" s="11"/>
+      <c r="BO72" s="11"/>
+      <c r="BP72" s="11"/>
+      <c r="BQ72" s="11"/>
+      <c r="BR72" s="11"/>
+      <c r="BS72" s="11"/>
+      <c r="BT72" s="11"/>
+      <c r="BU72" s="11"/>
+      <c r="BV72" s="11"/>
     </row>
-    <row r="73" spans="1:74" s="3" customFormat="1">
+    <row r="73" spans="1:74" s="8" customFormat="1">
       <c r="A73"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
-      <c r="AQ73" s="5"/>
-      <c r="AR73" s="5"/>
-      <c r="AS73" s="5"/>
-      <c r="AT73" s="5"/>
-      <c r="AU73" s="5"/>
-      <c r="AV73" s="5"/>
-      <c r="AW73" s="5"/>
-      <c r="AX73" s="5"/>
-      <c r="AY73" s="5"/>
-      <c r="AZ73" s="5"/>
-      <c r="BA73" s="5"/>
-      <c r="BB73" s="5"/>
-      <c r="BC73" s="5"/>
-      <c r="BD73" s="5"/>
-      <c r="BE73" s="5"/>
-      <c r="BF73" s="5"/>
-      <c r="BG73" s="5"/>
-      <c r="BH73" s="5"/>
-      <c r="BI73" s="5"/>
-      <c r="BJ73" s="5"/>
-      <c r="BK73" s="5"/>
-      <c r="BL73" s="5"/>
-      <c r="BM73" s="5"/>
-      <c r="BN73" s="5"/>
-      <c r="BO73" s="5"/>
-      <c r="BP73" s="5"/>
-      <c r="BQ73" s="5"/>
-      <c r="BR73" s="5"/>
-      <c r="BS73" s="5"/>
-      <c r="BT73" s="5"/>
-      <c r="BU73" s="5"/>
-      <c r="BV73" s="5"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11"/>
+      <c r="AR73" s="11"/>
+      <c r="AS73" s="11"/>
+      <c r="AT73" s="11"/>
+      <c r="AU73" s="11"/>
+      <c r="AV73" s="11"/>
+      <c r="AW73" s="11"/>
+      <c r="AX73" s="11"/>
+      <c r="AY73" s="11"/>
+      <c r="AZ73" s="11"/>
+      <c r="BA73" s="11"/>
+      <c r="BB73" s="11"/>
+      <c r="BC73" s="11"/>
+      <c r="BD73" s="11"/>
+      <c r="BE73" s="11"/>
+      <c r="BF73" s="11"/>
+      <c r="BG73" s="11"/>
+      <c r="BH73" s="11"/>
+      <c r="BI73" s="11"/>
+      <c r="BJ73" s="11"/>
+      <c r="BK73" s="11"/>
+      <c r="BL73" s="11"/>
+      <c r="BM73" s="11"/>
+      <c r="BN73" s="11"/>
+      <c r="BO73" s="11"/>
+      <c r="BP73" s="11"/>
+      <c r="BQ73" s="11"/>
+      <c r="BR73" s="11"/>
+      <c r="BS73" s="11"/>
+      <c r="BT73" s="11"/>
+      <c r="BU73" s="11"/>
+      <c r="BV73" s="11"/>
     </row>
-    <row r="74" spans="1:74" s="3" customFormat="1">
+    <row r="74" spans="1:74" s="8" customFormat="1">
       <c r="A74"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
-      <c r="AH74" s="5"/>
-      <c r="AI74" s="5"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="5"/>
-      <c r="AP74" s="5"/>
-      <c r="AQ74" s="5"/>
-      <c r="AR74" s="5"/>
-      <c r="AS74" s="5"/>
-      <c r="AT74" s="5"/>
-      <c r="AU74" s="5"/>
-      <c r="AV74" s="5"/>
-      <c r="AW74" s="5"/>
-      <c r="AX74" s="5"/>
-      <c r="AY74" s="5"/>
-      <c r="AZ74" s="5"/>
-      <c r="BA74" s="5"/>
-      <c r="BB74" s="5"/>
-      <c r="BC74" s="5"/>
-      <c r="BD74" s="5"/>
-      <c r="BE74" s="5"/>
-      <c r="BF74" s="5"/>
-      <c r="BG74" s="5"/>
-      <c r="BH74" s="5"/>
-      <c r="BI74" s="5"/>
-      <c r="BJ74" s="5"/>
-      <c r="BK74" s="5"/>
-      <c r="BL74" s="5"/>
-      <c r="BM74" s="5"/>
-      <c r="BN74" s="5"/>
-      <c r="BO74" s="5"/>
-      <c r="BP74" s="5"/>
-      <c r="BQ74" s="5"/>
-      <c r="BR74" s="5"/>
-      <c r="BS74" s="5"/>
-      <c r="BT74" s="5"/>
-      <c r="BU74" s="5"/>
-      <c r="BV74" s="5"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11"/>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="11"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="11"/>
+      <c r="AV74" s="11"/>
+      <c r="AW74" s="11"/>
+      <c r="AX74" s="11"/>
+      <c r="AY74" s="11"/>
+      <c r="AZ74" s="11"/>
+      <c r="BA74" s="11"/>
+      <c r="BB74" s="11"/>
+      <c r="BC74" s="11"/>
+      <c r="BD74" s="11"/>
+      <c r="BE74" s="11"/>
+      <c r="BF74" s="11"/>
+      <c r="BG74" s="11"/>
+      <c r="BH74" s="11"/>
+      <c r="BI74" s="11"/>
+      <c r="BJ74" s="11"/>
+      <c r="BK74" s="11"/>
+      <c r="BL74" s="11"/>
+      <c r="BM74" s="11"/>
+      <c r="BN74" s="11"/>
+      <c r="BO74" s="11"/>
+      <c r="BP74" s="11"/>
+      <c r="BQ74" s="11"/>
+      <c r="BR74" s="11"/>
+      <c r="BS74" s="11"/>
+      <c r="BT74" s="11"/>
+      <c r="BU74" s="11"/>
+      <c r="BV74" s="11"/>
     </row>
-    <row r="75" spans="1:74" s="3" customFormat="1">
+    <row r="75" spans="1:74" s="8" customFormat="1">
       <c r="A75"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="5"/>
-      <c r="AI75" s="5"/>
-      <c r="AJ75" s="5"/>
-      <c r="AK75" s="5"/>
-      <c r="AL75" s="5"/>
-      <c r="AM75" s="5"/>
-      <c r="AN75" s="5"/>
-      <c r="AO75" s="5"/>
-      <c r="AP75" s="5"/>
-      <c r="AQ75" s="5"/>
-      <c r="AR75" s="5"/>
-      <c r="AS75" s="5"/>
-      <c r="AT75" s="5"/>
-      <c r="AU75" s="5"/>
-      <c r="AV75" s="5"/>
-      <c r="AW75" s="5"/>
-      <c r="AX75" s="5"/>
-      <c r="AY75" s="5"/>
-      <c r="AZ75" s="5"/>
-      <c r="BA75" s="5"/>
-      <c r="BB75" s="5"/>
-      <c r="BC75" s="5"/>
-      <c r="BD75" s="5"/>
-      <c r="BE75" s="5"/>
-      <c r="BF75" s="5"/>
-      <c r="BG75" s="5"/>
-      <c r="BH75" s="5"/>
-      <c r="BI75" s="5"/>
-      <c r="BJ75" s="5"/>
-      <c r="BK75" s="5"/>
-      <c r="BL75" s="5"/>
-      <c r="BM75" s="5"/>
-      <c r="BN75" s="5"/>
-      <c r="BO75" s="5"/>
-      <c r="BP75" s="5"/>
-      <c r="BQ75" s="5"/>
-      <c r="BR75" s="5"/>
-      <c r="BS75" s="5"/>
-      <c r="BT75" s="5"/>
-      <c r="BU75" s="5"/>
-      <c r="BV75" s="5"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="11"/>
+      <c r="AK75" s="11"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="11"/>
+      <c r="AO75" s="11"/>
+      <c r="AP75" s="11"/>
+      <c r="AQ75" s="11"/>
+      <c r="AR75" s="11"/>
+      <c r="AS75" s="11"/>
+      <c r="AT75" s="11"/>
+      <c r="AU75" s="11"/>
+      <c r="AV75" s="11"/>
+      <c r="AW75" s="11"/>
+      <c r="AX75" s="11"/>
+      <c r="AY75" s="11"/>
+      <c r="AZ75" s="11"/>
+      <c r="BA75" s="11"/>
+      <c r="BB75" s="11"/>
+      <c r="BC75" s="11"/>
+      <c r="BD75" s="11"/>
+      <c r="BE75" s="11"/>
+      <c r="BF75" s="11"/>
+      <c r="BG75" s="11"/>
+      <c r="BH75" s="11"/>
+      <c r="BI75" s="11"/>
+      <c r="BJ75" s="11"/>
+      <c r="BK75" s="11"/>
+      <c r="BL75" s="11"/>
+      <c r="BM75" s="11"/>
+      <c r="BN75" s="11"/>
+      <c r="BO75" s="11"/>
+      <c r="BP75" s="11"/>
+      <c r="BQ75" s="11"/>
+      <c r="BR75" s="11"/>
+      <c r="BS75" s="11"/>
+      <c r="BT75" s="11"/>
+      <c r="BU75" s="11"/>
+      <c r="BV75" s="11"/>
     </row>
-    <row r="76" spans="1:74" s="3" customFormat="1">
+    <row r="76" spans="1:74" s="8" customFormat="1">
       <c r="A76"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="5"/>
-      <c r="AP76" s="5"/>
-      <c r="AQ76" s="5"/>
-      <c r="AR76" s="5"/>
-      <c r="AS76" s="5"/>
-      <c r="AT76" s="5"/>
-      <c r="AU76" s="5"/>
-      <c r="AV76" s="5"/>
-      <c r="AW76" s="5"/>
-      <c r="AX76" s="5"/>
-      <c r="AY76" s="5"/>
-      <c r="AZ76" s="5"/>
-      <c r="BA76" s="5"/>
-      <c r="BB76" s="5"/>
-      <c r="BC76" s="5"/>
-      <c r="BD76" s="5"/>
-      <c r="BE76" s="5"/>
-      <c r="BF76" s="5"/>
-      <c r="BG76" s="5"/>
-      <c r="BH76" s="5"/>
-      <c r="BI76" s="5"/>
-      <c r="BJ76" s="5"/>
-      <c r="BK76" s="5"/>
-      <c r="BL76" s="5"/>
-      <c r="BM76" s="5"/>
-      <c r="BN76" s="5"/>
-      <c r="BO76" s="5"/>
-      <c r="BP76" s="5"/>
-      <c r="BQ76" s="5"/>
-      <c r="BR76" s="5"/>
-      <c r="BS76" s="5"/>
-      <c r="BT76" s="5"/>
-      <c r="BU76" s="5"/>
-      <c r="BV76" s="5"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+      <c r="AC76" s="11"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="11"/>
+      <c r="AF76" s="11"/>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
+      <c r="AJ76" s="11"/>
+      <c r="AK76" s="11"/>
+      <c r="AL76" s="11"/>
+      <c r="AM76" s="11"/>
+      <c r="AN76" s="11"/>
+      <c r="AO76" s="11"/>
+      <c r="AP76" s="11"/>
+      <c r="AQ76" s="11"/>
+      <c r="AR76" s="11"/>
+      <c r="AS76" s="11"/>
+      <c r="AT76" s="11"/>
+      <c r="AU76" s="11"/>
+      <c r="AV76" s="11"/>
+      <c r="AW76" s="11"/>
+      <c r="AX76" s="11"/>
+      <c r="AY76" s="11"/>
+      <c r="AZ76" s="11"/>
+      <c r="BA76" s="11"/>
+      <c r="BB76" s="11"/>
+      <c r="BC76" s="11"/>
+      <c r="BD76" s="11"/>
+      <c r="BE76" s="11"/>
+      <c r="BF76" s="11"/>
+      <c r="BG76" s="11"/>
+      <c r="BH76" s="11"/>
+      <c r="BI76" s="11"/>
+      <c r="BJ76" s="11"/>
+      <c r="BK76" s="11"/>
+      <c r="BL76" s="11"/>
+      <c r="BM76" s="11"/>
+      <c r="BN76" s="11"/>
+      <c r="BO76" s="11"/>
+      <c r="BP76" s="11"/>
+      <c r="BQ76" s="11"/>
+      <c r="BR76" s="11"/>
+      <c r="BS76" s="11"/>
+      <c r="BT76" s="11"/>
+      <c r="BU76" s="11"/>
+      <c r="BV76" s="11"/>
     </row>
-    <row r="77" spans="1:74" s="3" customFormat="1">
+    <row r="77" spans="1:74" s="8" customFormat="1">
       <c r="A77"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-      <c r="AP77" s="5"/>
-      <c r="AQ77" s="5"/>
-      <c r="AR77" s="5"/>
-      <c r="AS77" s="5"/>
-      <c r="AT77" s="5"/>
-      <c r="AU77" s="5"/>
-      <c r="AV77" s="5"/>
-      <c r="AW77" s="5"/>
-      <c r="AX77" s="5"/>
-      <c r="AY77" s="5"/>
-      <c r="AZ77" s="5"/>
-      <c r="BA77" s="5"/>
-      <c r="BB77" s="5"/>
-      <c r="BC77" s="5"/>
-      <c r="BD77" s="5"/>
-      <c r="BE77" s="5"/>
-      <c r="BF77" s="5"/>
-      <c r="BG77" s="5"/>
-      <c r="BH77" s="5"/>
-      <c r="BI77" s="5"/>
-      <c r="BJ77" s="5"/>
-      <c r="BK77" s="5"/>
-      <c r="BL77" s="5"/>
-      <c r="BM77" s="5"/>
-      <c r="BN77" s="5"/>
-      <c r="BO77" s="5"/>
-      <c r="BP77" s="5"/>
-      <c r="BQ77" s="5"/>
-      <c r="BR77" s="5"/>
-      <c r="BS77" s="5"/>
-      <c r="BT77" s="5"/>
-      <c r="BU77" s="5"/>
-      <c r="BV77" s="5"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="11"/>
+      <c r="AF77" s="11"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="11"/>
+      <c r="AP77" s="11"/>
+      <c r="AQ77" s="11"/>
+      <c r="AR77" s="11"/>
+      <c r="AS77" s="11"/>
+      <c r="AT77" s="11"/>
+      <c r="AU77" s="11"/>
+      <c r="AV77" s="11"/>
+      <c r="AW77" s="11"/>
+      <c r="AX77" s="11"/>
+      <c r="AY77" s="11"/>
+      <c r="AZ77" s="11"/>
+      <c r="BA77" s="11"/>
+      <c r="BB77" s="11"/>
+      <c r="BC77" s="11"/>
+      <c r="BD77" s="11"/>
+      <c r="BE77" s="11"/>
+      <c r="BF77" s="11"/>
+      <c r="BG77" s="11"/>
+      <c r="BH77" s="11"/>
+      <c r="BI77" s="11"/>
+      <c r="BJ77" s="11"/>
+      <c r="BK77" s="11"/>
+      <c r="BL77" s="11"/>
+      <c r="BM77" s="11"/>
+      <c r="BN77" s="11"/>
+      <c r="BO77" s="11"/>
+      <c r="BP77" s="11"/>
+      <c r="BQ77" s="11"/>
+      <c r="BR77" s="11"/>
+      <c r="BS77" s="11"/>
+      <c r="BT77" s="11"/>
+      <c r="BU77" s="11"/>
+      <c r="BV77" s="11"/>
     </row>
-    <row r="78" spans="1:74" s="3" customFormat="1">
+    <row r="78" spans="1:74" s="8" customFormat="1">
       <c r="A78"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
-      <c r="AP78" s="5"/>
-      <c r="AQ78" s="5"/>
-      <c r="AR78" s="5"/>
-      <c r="AS78" s="5"/>
-      <c r="AT78" s="5"/>
-      <c r="AU78" s="5"/>
-      <c r="AV78" s="5"/>
-      <c r="AW78" s="5"/>
-      <c r="AX78" s="5"/>
-      <c r="AY78" s="5"/>
-      <c r="AZ78" s="5"/>
-      <c r="BA78" s="5"/>
-      <c r="BB78" s="5"/>
-      <c r="BC78" s="5"/>
-      <c r="BD78" s="5"/>
-      <c r="BE78" s="5"/>
-      <c r="BF78" s="5"/>
-      <c r="BG78" s="5"/>
-      <c r="BH78" s="5"/>
-      <c r="BI78" s="5"/>
-      <c r="BJ78" s="5"/>
-      <c r="BK78" s="5"/>
-      <c r="BL78" s="5"/>
-      <c r="BM78" s="5"/>
-      <c r="BN78" s="5"/>
-      <c r="BO78" s="5"/>
-      <c r="BP78" s="5"/>
-      <c r="BQ78" s="5"/>
-      <c r="BR78" s="5"/>
-      <c r="BS78" s="5"/>
-      <c r="BT78" s="5"/>
-      <c r="BU78" s="5"/>
-      <c r="BV78" s="5"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11"/>
+      <c r="AD78" s="11"/>
+      <c r="AE78" s="11"/>
+      <c r="AF78" s="11"/>
+      <c r="AG78" s="11"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
+      <c r="AJ78" s="11"/>
+      <c r="AK78" s="11"/>
+      <c r="AL78" s="11"/>
+      <c r="AM78" s="11"/>
+      <c r="AN78" s="11"/>
+      <c r="AO78" s="11"/>
+      <c r="AP78" s="11"/>
+      <c r="AQ78" s="11"/>
+      <c r="AR78" s="11"/>
+      <c r="AS78" s="11"/>
+      <c r="AT78" s="11"/>
+      <c r="AU78" s="11"/>
+      <c r="AV78" s="11"/>
+      <c r="AW78" s="11"/>
+      <c r="AX78" s="11"/>
+      <c r="AY78" s="11"/>
+      <c r="AZ78" s="11"/>
+      <c r="BA78" s="11"/>
+      <c r="BB78" s="11"/>
+      <c r="BC78" s="11"/>
+      <c r="BD78" s="11"/>
+      <c r="BE78" s="11"/>
+      <c r="BF78" s="11"/>
+      <c r="BG78" s="11"/>
+      <c r="BH78" s="11"/>
+      <c r="BI78" s="11"/>
+      <c r="BJ78" s="11"/>
+      <c r="BK78" s="11"/>
+      <c r="BL78" s="11"/>
+      <c r="BM78" s="11"/>
+      <c r="BN78" s="11"/>
+      <c r="BO78" s="11"/>
+      <c r="BP78" s="11"/>
+      <c r="BQ78" s="11"/>
+      <c r="BR78" s="11"/>
+      <c r="BS78" s="11"/>
+      <c r="BT78" s="11"/>
+      <c r="BU78" s="11"/>
+      <c r="BV78" s="11"/>
     </row>
-    <row r="79" spans="1:74" s="3" customFormat="1">
+    <row r="79" spans="1:74" s="8" customFormat="1">
       <c r="A79"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-      <c r="AN79" s="5"/>
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
-      <c r="AQ79" s="5"/>
-      <c r="AR79" s="5"/>
-      <c r="AS79" s="5"/>
-      <c r="AT79" s="5"/>
-      <c r="AU79" s="5"/>
-      <c r="AV79" s="5"/>
-      <c r="AW79" s="5"/>
-      <c r="AX79" s="5"/>
-      <c r="AY79" s="5"/>
-      <c r="AZ79" s="5"/>
-      <c r="BA79" s="5"/>
-      <c r="BB79" s="5"/>
-      <c r="BC79" s="5"/>
-      <c r="BD79" s="5"/>
-      <c r="BE79" s="5"/>
-      <c r="BF79" s="5"/>
-      <c r="BG79" s="5"/>
-      <c r="BH79" s="5"/>
-      <c r="BI79" s="5"/>
-      <c r="BJ79" s="5"/>
-      <c r="BK79" s="5"/>
-      <c r="BL79" s="5"/>
-      <c r="BM79" s="5"/>
-      <c r="BN79" s="5"/>
-      <c r="BO79" s="5"/>
-      <c r="BP79" s="5"/>
-      <c r="BQ79" s="5"/>
-      <c r="BR79" s="5"/>
-      <c r="BS79" s="5"/>
-      <c r="BT79" s="5"/>
-      <c r="BU79" s="5"/>
-      <c r="BV79" s="5"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="11"/>
+      <c r="AO79" s="11"/>
+      <c r="AP79" s="11"/>
+      <c r="AQ79" s="11"/>
+      <c r="AR79" s="11"/>
+      <c r="AS79" s="11"/>
+      <c r="AT79" s="11"/>
+      <c r="AU79" s="11"/>
+      <c r="AV79" s="11"/>
+      <c r="AW79" s="11"/>
+      <c r="AX79" s="11"/>
+      <c r="AY79" s="11"/>
+      <c r="AZ79" s="11"/>
+      <c r="BA79" s="11"/>
+      <c r="BB79" s="11"/>
+      <c r="BC79" s="11"/>
+      <c r="BD79" s="11"/>
+      <c r="BE79" s="11"/>
+      <c r="BF79" s="11"/>
+      <c r="BG79" s="11"/>
+      <c r="BH79" s="11"/>
+      <c r="BI79" s="11"/>
+      <c r="BJ79" s="11"/>
+      <c r="BK79" s="11"/>
+      <c r="BL79" s="11"/>
+      <c r="BM79" s="11"/>
+      <c r="BN79" s="11"/>
+      <c r="BO79" s="11"/>
+      <c r="BP79" s="11"/>
+      <c r="BQ79" s="11"/>
+      <c r="BR79" s="11"/>
+      <c r="BS79" s="11"/>
+      <c r="BT79" s="11"/>
+      <c r="BU79" s="11"/>
+      <c r="BV79" s="11"/>
     </row>
-    <row r="80" spans="1:74" s="3" customFormat="1">
+    <row r="80" spans="1:74" s="8" customFormat="1">
       <c r="A80"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
-      <c r="AH80" s="5"/>
-      <c r="AI80" s="5"/>
-      <c r="AJ80" s="5"/>
-      <c r="AK80" s="5"/>
-      <c r="AL80" s="5"/>
-      <c r="AM80" s="5"/>
-      <c r="AN80" s="5"/>
-      <c r="AO80" s="5"/>
-      <c r="AP80" s="5"/>
-      <c r="AQ80" s="5"/>
-      <c r="AR80" s="5"/>
-      <c r="AS80" s="5"/>
-      <c r="AT80" s="5"/>
-      <c r="AU80" s="5"/>
-      <c r="AV80" s="5"/>
-      <c r="AW80" s="5"/>
-      <c r="AX80" s="5"/>
-      <c r="AY80" s="5"/>
-      <c r="AZ80" s="5"/>
-      <c r="BA80" s="5"/>
-      <c r="BB80" s="5"/>
-      <c r="BC80" s="5"/>
-      <c r="BD80" s="5"/>
-      <c r="BE80" s="5"/>
-      <c r="BF80" s="5"/>
-      <c r="BG80" s="5"/>
-      <c r="BH80" s="5"/>
-      <c r="BI80" s="5"/>
-      <c r="BJ80" s="5"/>
-      <c r="BK80" s="5"/>
-      <c r="BL80" s="5"/>
-      <c r="BM80" s="5"/>
-      <c r="BN80" s="5"/>
-      <c r="BO80" s="5"/>
-      <c r="BP80" s="5"/>
-      <c r="BQ80" s="5"/>
-      <c r="BR80" s="5"/>
-      <c r="BS80" s="5"/>
-      <c r="BT80" s="5"/>
-      <c r="BU80" s="5"/>
-      <c r="BV80" s="5"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+      <c r="AO80" s="11"/>
+      <c r="AP80" s="11"/>
+      <c r="AQ80" s="11"/>
+      <c r="AR80" s="11"/>
+      <c r="AS80" s="11"/>
+      <c r="AT80" s="11"/>
+      <c r="AU80" s="11"/>
+      <c r="AV80" s="11"/>
+      <c r="AW80" s="11"/>
+      <c r="AX80" s="11"/>
+      <c r="AY80" s="11"/>
+      <c r="AZ80" s="11"/>
+      <c r="BA80" s="11"/>
+      <c r="BB80" s="11"/>
+      <c r="BC80" s="11"/>
+      <c r="BD80" s="11"/>
+      <c r="BE80" s="11"/>
+      <c r="BF80" s="11"/>
+      <c r="BG80" s="11"/>
+      <c r="BH80" s="11"/>
+      <c r="BI80" s="11"/>
+      <c r="BJ80" s="11"/>
+      <c r="BK80" s="11"/>
+      <c r="BL80" s="11"/>
+      <c r="BM80" s="11"/>
+      <c r="BN80" s="11"/>
+      <c r="BO80" s="11"/>
+      <c r="BP80" s="11"/>
+      <c r="BQ80" s="11"/>
+      <c r="BR80" s="11"/>
+      <c r="BS80" s="11"/>
+      <c r="BT80" s="11"/>
+      <c r="BU80" s="11"/>
+      <c r="BV80" s="11"/>
     </row>
-    <row r="81" spans="1:74" s="3" customFormat="1">
+    <row r="81" spans="1:74" s="8" customFormat="1">
       <c r="A81"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5"/>
-      <c r="AI81" s="5"/>
-      <c r="AJ81" s="5"/>
-      <c r="AK81" s="5"/>
-      <c r="AL81" s="5"/>
-      <c r="AM81" s="5"/>
-      <c r="AN81" s="5"/>
-      <c r="AO81" s="5"/>
-      <c r="AP81" s="5"/>
-      <c r="AQ81" s="5"/>
-      <c r="AR81" s="5"/>
-      <c r="AS81" s="5"/>
-      <c r="AT81" s="5"/>
-      <c r="AU81" s="5"/>
-      <c r="AV81" s="5"/>
-      <c r="AW81" s="5"/>
-      <c r="AX81" s="5"/>
-      <c r="AY81" s="5"/>
-      <c r="AZ81" s="5"/>
-      <c r="BA81" s="5"/>
-      <c r="BB81" s="5"/>
-      <c r="BC81" s="5"/>
-      <c r="BD81" s="5"/>
-      <c r="BE81" s="5"/>
-      <c r="BF81" s="5"/>
-      <c r="BG81" s="5"/>
-      <c r="BH81" s="5"/>
-      <c r="BI81" s="5"/>
-      <c r="BJ81" s="5"/>
-      <c r="BK81" s="5"/>
-      <c r="BL81" s="5"/>
-      <c r="BM81" s="5"/>
-      <c r="BN81" s="5"/>
-      <c r="BO81" s="5"/>
-      <c r="BP81" s="5"/>
-      <c r="BQ81" s="5"/>
-      <c r="BR81" s="5"/>
-      <c r="BS81" s="5"/>
-      <c r="BT81" s="5"/>
-      <c r="BU81" s="5"/>
-      <c r="BV81" s="5"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="11"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="11"/>
+      <c r="AV81" s="11"/>
+      <c r="AW81" s="11"/>
+      <c r="AX81" s="11"/>
+      <c r="AY81" s="11"/>
+      <c r="AZ81" s="11"/>
+      <c r="BA81" s="11"/>
+      <c r="BB81" s="11"/>
+      <c r="BC81" s="11"/>
+      <c r="BD81" s="11"/>
+      <c r="BE81" s="11"/>
+      <c r="BF81" s="11"/>
+      <c r="BG81" s="11"/>
+      <c r="BH81" s="11"/>
+      <c r="BI81" s="11"/>
+      <c r="BJ81" s="11"/>
+      <c r="BK81" s="11"/>
+      <c r="BL81" s="11"/>
+      <c r="BM81" s="11"/>
+      <c r="BN81" s="11"/>
+      <c r="BO81" s="11"/>
+      <c r="BP81" s="11"/>
+      <c r="BQ81" s="11"/>
+      <c r="BR81" s="11"/>
+      <c r="BS81" s="11"/>
+      <c r="BT81" s="11"/>
+      <c r="BU81" s="11"/>
+      <c r="BV81" s="11"/>
     </row>
-    <row r="82" spans="1:74" s="3" customFormat="1">
+    <row r="82" spans="1:74" s="8" customFormat="1">
       <c r="A82"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="5"/>
-      <c r="AS82" s="5"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="5"/>
-      <c r="AZ82" s="5"/>
-      <c r="BA82" s="5"/>
-      <c r="BB82" s="5"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="5"/>
-      <c r="BE82" s="5"/>
-      <c r="BF82" s="5"/>
-      <c r="BG82" s="5"/>
-      <c r="BH82" s="5"/>
-      <c r="BI82" s="5"/>
-      <c r="BJ82" s="5"/>
-      <c r="BK82" s="5"/>
-      <c r="BL82" s="5"/>
-      <c r="BM82" s="5"/>
-      <c r="BN82" s="5"/>
-      <c r="BO82" s="5"/>
-      <c r="BP82" s="5"/>
-      <c r="BQ82" s="5"/>
-      <c r="BR82" s="5"/>
-      <c r="BS82" s="5"/>
-      <c r="BT82" s="5"/>
-      <c r="BU82" s="5"/>
-      <c r="BV82" s="5"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="11"/>
+      <c r="AB82" s="11"/>
+      <c r="AC82" s="11"/>
+      <c r="AD82" s="11"/>
+      <c r="AE82" s="11"/>
+      <c r="AF82" s="11"/>
+      <c r="AG82" s="11"/>
+      <c r="AH82" s="11"/>
+      <c r="AI82" s="11"/>
+      <c r="AJ82" s="11"/>
+      <c r="AK82" s="11"/>
+      <c r="AL82" s="11"/>
+      <c r="AM82" s="11"/>
+      <c r="AN82" s="11"/>
+      <c r="AO82" s="11"/>
+      <c r="AP82" s="11"/>
+      <c r="AQ82" s="11"/>
+      <c r="AR82" s="11"/>
+      <c r="AS82" s="11"/>
+      <c r="AT82" s="11"/>
+      <c r="AU82" s="11"/>
+      <c r="AV82" s="11"/>
+      <c r="AW82" s="11"/>
+      <c r="AX82" s="11"/>
+      <c r="AY82" s="11"/>
+      <c r="AZ82" s="11"/>
+      <c r="BA82" s="11"/>
+      <c r="BB82" s="11"/>
+      <c r="BC82" s="11"/>
+      <c r="BD82" s="11"/>
+      <c r="BE82" s="11"/>
+      <c r="BF82" s="11"/>
+      <c r="BG82" s="11"/>
+      <c r="BH82" s="11"/>
+      <c r="BI82" s="11"/>
+      <c r="BJ82" s="11"/>
+      <c r="BK82" s="11"/>
+      <c r="BL82" s="11"/>
+      <c r="BM82" s="11"/>
+      <c r="BN82" s="11"/>
+      <c r="BO82" s="11"/>
+      <c r="BP82" s="11"/>
+      <c r="BQ82" s="11"/>
+      <c r="BR82" s="11"/>
+      <c r="BS82" s="11"/>
+      <c r="BT82" s="11"/>
+      <c r="BU82" s="11"/>
+      <c r="BV82" s="11"/>
     </row>
-    <row r="83" spans="1:74" s="3" customFormat="1">
+    <row r="83" spans="1:74" s="8" customFormat="1">
       <c r="A83"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-      <c r="BE83" s="5"/>
-      <c r="BF83" s="5"/>
-      <c r="BG83" s="5"/>
-      <c r="BH83" s="5"/>
-      <c r="BI83" s="5"/>
-      <c r="BJ83" s="5"/>
-      <c r="BK83" s="5"/>
-      <c r="BL83" s="5"/>
-      <c r="BM83" s="5"/>
-      <c r="BN83" s="5"/>
-      <c r="BO83" s="5"/>
-      <c r="BP83" s="5"/>
-      <c r="BQ83" s="5"/>
-      <c r="BR83" s="5"/>
-      <c r="BS83" s="5"/>
-      <c r="BT83" s="5"/>
-      <c r="BU83" s="5"/>
-      <c r="BV83" s="5"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="11"/>
+      <c r="AB83" s="11"/>
+      <c r="AC83" s="11"/>
+      <c r="AD83" s="11"/>
+      <c r="AE83" s="11"/>
+      <c r="AF83" s="11"/>
+      <c r="AG83" s="11"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="11"/>
+      <c r="AJ83" s="11"/>
+      <c r="AK83" s="11"/>
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="11"/>
+      <c r="AN83" s="11"/>
+      <c r="AO83" s="11"/>
+      <c r="AP83" s="11"/>
+      <c r="AQ83" s="11"/>
+      <c r="AR83" s="11"/>
+      <c r="AS83" s="11"/>
+      <c r="AT83" s="11"/>
+      <c r="AU83" s="11"/>
+      <c r="AV83" s="11"/>
+      <c r="AW83" s="11"/>
+      <c r="AX83" s="11"/>
+      <c r="AY83" s="11"/>
+      <c r="AZ83" s="11"/>
+      <c r="BA83" s="11"/>
+      <c r="BB83" s="11"/>
+      <c r="BC83" s="11"/>
+      <c r="BD83" s="11"/>
+      <c r="BE83" s="11"/>
+      <c r="BF83" s="11"/>
+      <c r="BG83" s="11"/>
+      <c r="BH83" s="11"/>
+      <c r="BI83" s="11"/>
+      <c r="BJ83" s="11"/>
+      <c r="BK83" s="11"/>
+      <c r="BL83" s="11"/>
+      <c r="BM83" s="11"/>
+      <c r="BN83" s="11"/>
+      <c r="BO83" s="11"/>
+      <c r="BP83" s="11"/>
+      <c r="BQ83" s="11"/>
+      <c r="BR83" s="11"/>
+      <c r="BS83" s="11"/>
+      <c r="BT83" s="11"/>
+      <c r="BU83" s="11"/>
+      <c r="BV83" s="11"/>
     </row>
-    <row r="84" spans="1:74" s="3" customFormat="1">
+    <row r="84" spans="1:74" s="8" customFormat="1">
       <c r="A84"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="5"/>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
-      <c r="AK84" s="5"/>
-      <c r="AL84" s="5"/>
-      <c r="AM84" s="5"/>
-      <c r="AN84" s="5"/>
-      <c r="AO84" s="5"/>
-      <c r="AP84" s="5"/>
-      <c r="AQ84" s="5"/>
-      <c r="AR84" s="5"/>
-      <c r="AS84" s="5"/>
-      <c r="AT84" s="5"/>
-      <c r="AU84" s="5"/>
-      <c r="AV84" s="5"/>
-      <c r="AW84" s="5"/>
-      <c r="AX84" s="5"/>
-      <c r="AY84" s="5"/>
-      <c r="AZ84" s="5"/>
-      <c r="BA84" s="5"/>
-      <c r="BB84" s="5"/>
-      <c r="BC84" s="5"/>
-      <c r="BD84" s="5"/>
-      <c r="BE84" s="5"/>
-      <c r="BF84" s="5"/>
-      <c r="BG84" s="5"/>
-      <c r="BH84" s="5"/>
-      <c r="BI84" s="5"/>
-      <c r="BJ84" s="5"/>
-      <c r="BK84" s="5"/>
-      <c r="BL84" s="5"/>
-      <c r="BM84" s="5"/>
-      <c r="BN84" s="5"/>
-      <c r="BO84" s="5"/>
-      <c r="BP84" s="5"/>
-      <c r="BQ84" s="5"/>
-      <c r="BR84" s="5"/>
-      <c r="BS84" s="5"/>
-      <c r="BT84" s="5"/>
-      <c r="BU84" s="5"/>
-      <c r="BV84" s="5"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="11"/>
+      <c r="AC84" s="11"/>
+      <c r="AD84" s="11"/>
+      <c r="AE84" s="11"/>
+      <c r="AF84" s="11"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+      <c r="AS84" s="11"/>
+      <c r="AT84" s="11"/>
+      <c r="AU84" s="11"/>
+      <c r="AV84" s="11"/>
+      <c r="AW84" s="11"/>
+      <c r="AX84" s="11"/>
+      <c r="AY84" s="11"/>
+      <c r="AZ84" s="11"/>
+      <c r="BA84" s="11"/>
+      <c r="BB84" s="11"/>
+      <c r="BC84" s="11"/>
+      <c r="BD84" s="11"/>
+      <c r="BE84" s="11"/>
+      <c r="BF84" s="11"/>
+      <c r="BG84" s="11"/>
+      <c r="BH84" s="11"/>
+      <c r="BI84" s="11"/>
+      <c r="BJ84" s="11"/>
+      <c r="BK84" s="11"/>
+      <c r="BL84" s="11"/>
+      <c r="BM84" s="11"/>
+      <c r="BN84" s="11"/>
+      <c r="BO84" s="11"/>
+      <c r="BP84" s="11"/>
+      <c r="BQ84" s="11"/>
+      <c r="BR84" s="11"/>
+      <c r="BS84" s="11"/>
+      <c r="BT84" s="11"/>
+      <c r="BU84" s="11"/>
+      <c r="BV84" s="11"/>
     </row>
-    <row r="85" spans="1:74" s="3" customFormat="1">
+    <row r="85" spans="1:74" s="8" customFormat="1">
       <c r="A85"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
-      <c r="AK85" s="5"/>
-      <c r="AL85" s="5"/>
-      <c r="AM85" s="5"/>
-      <c r="AN85" s="5"/>
-      <c r="AO85" s="5"/>
-      <c r="AP85" s="5"/>
-      <c r="AQ85" s="5"/>
-      <c r="AR85" s="5"/>
-      <c r="AS85" s="5"/>
-      <c r="AT85" s="5"/>
-      <c r="AU85" s="5"/>
-      <c r="AV85" s="5"/>
-      <c r="AW85" s="5"/>
-      <c r="AX85" s="5"/>
-      <c r="AY85" s="5"/>
-      <c r="AZ85" s="5"/>
-      <c r="BA85" s="5"/>
-      <c r="BB85" s="5"/>
-      <c r="BC85" s="5"/>
-      <c r="BD85" s="5"/>
-      <c r="BE85" s="5"/>
-      <c r="BF85" s="5"/>
-      <c r="BG85" s="5"/>
-      <c r="BH85" s="5"/>
-      <c r="BI85" s="5"/>
-      <c r="BJ85" s="5"/>
-      <c r="BK85" s="5"/>
-      <c r="BL85" s="5"/>
-      <c r="BM85" s="5"/>
-      <c r="BN85" s="5"/>
-      <c r="BO85" s="5"/>
-      <c r="BP85" s="5"/>
-      <c r="BQ85" s="5"/>
-      <c r="BR85" s="5"/>
-      <c r="BS85" s="5"/>
-      <c r="BT85" s="5"/>
-      <c r="BU85" s="5"/>
-      <c r="BV85" s="5"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="11"/>
+      <c r="AB85" s="11"/>
+      <c r="AC85" s="11"/>
+      <c r="AD85" s="11"/>
+      <c r="AE85" s="11"/>
+      <c r="AF85" s="11"/>
+      <c r="AG85" s="11"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="11"/>
+      <c r="AJ85" s="11"/>
+      <c r="AK85" s="11"/>
+      <c r="AL85" s="11"/>
+      <c r="AM85" s="11"/>
+      <c r="AN85" s="11"/>
+      <c r="AO85" s="11"/>
+      <c r="AP85" s="11"/>
+      <c r="AQ85" s="11"/>
+      <c r="AR85" s="11"/>
+      <c r="AS85" s="11"/>
+      <c r="AT85" s="11"/>
+      <c r="AU85" s="11"/>
+      <c r="AV85" s="11"/>
+      <c r="AW85" s="11"/>
+      <c r="AX85" s="11"/>
+      <c r="AY85" s="11"/>
+      <c r="AZ85" s="11"/>
+      <c r="BA85" s="11"/>
+      <c r="BB85" s="11"/>
+      <c r="BC85" s="11"/>
+      <c r="BD85" s="11"/>
+      <c r="BE85" s="11"/>
+      <c r="BF85" s="11"/>
+      <c r="BG85" s="11"/>
+      <c r="BH85" s="11"/>
+      <c r="BI85" s="11"/>
+      <c r="BJ85" s="11"/>
+      <c r="BK85" s="11"/>
+      <c r="BL85" s="11"/>
+      <c r="BM85" s="11"/>
+      <c r="BN85" s="11"/>
+      <c r="BO85" s="11"/>
+      <c r="BP85" s="11"/>
+      <c r="BQ85" s="11"/>
+      <c r="BR85" s="11"/>
+      <c r="BS85" s="11"/>
+      <c r="BT85" s="11"/>
+      <c r="BU85" s="11"/>
+      <c r="BV85" s="11"/>
     </row>
-    <row r="86" spans="1:74" s="3" customFormat="1">
+    <row r="86" spans="1:74" s="8" customFormat="1">
       <c r="A86"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5"/>
-      <c r="AF86" s="5"/>
-      <c r="AG86" s="5"/>
-      <c r="AH86" s="5"/>
-      <c r="AI86" s="5"/>
-      <c r="AJ86" s="5"/>
-      <c r="AK86" s="5"/>
-      <c r="AL86" s="5"/>
-      <c r="AM86" s="5"/>
-      <c r="AN86" s="5"/>
-      <c r="AO86" s="5"/>
-      <c r="AP86" s="5"/>
-      <c r="AQ86" s="5"/>
-      <c r="AR86" s="5"/>
-      <c r="AS86" s="5"/>
-      <c r="AT86" s="5"/>
-      <c r="AU86" s="5"/>
-      <c r="AV86" s="5"/>
-      <c r="AW86" s="5"/>
-      <c r="AX86" s="5"/>
-      <c r="AY86" s="5"/>
-      <c r="AZ86" s="5"/>
-      <c r="BA86" s="5"/>
-      <c r="BB86" s="5"/>
-      <c r="BC86" s="5"/>
-      <c r="BD86" s="5"/>
-      <c r="BE86" s="5"/>
-      <c r="BF86" s="5"/>
-      <c r="BG86" s="5"/>
-      <c r="BH86" s="5"/>
-      <c r="BI86" s="5"/>
-      <c r="BJ86" s="5"/>
-      <c r="BK86" s="5"/>
-      <c r="BL86" s="5"/>
-      <c r="BM86" s="5"/>
-      <c r="BN86" s="5"/>
-      <c r="BO86" s="5"/>
-      <c r="BP86" s="5"/>
-      <c r="BQ86" s="5"/>
-      <c r="BR86" s="5"/>
-      <c r="BS86" s="5"/>
-      <c r="BT86" s="5"/>
-      <c r="BU86" s="5"/>
-      <c r="BV86" s="5"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+      <c r="AB86" s="11"/>
+      <c r="AC86" s="11"/>
+      <c r="AD86" s="11"/>
+      <c r="AE86" s="11"/>
+      <c r="AF86" s="11"/>
+      <c r="AG86" s="11"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11"/>
+      <c r="AJ86" s="11"/>
+      <c r="AK86" s="11"/>
+      <c r="AL86" s="11"/>
+      <c r="AM86" s="11"/>
+      <c r="AN86" s="11"/>
+      <c r="AO86" s="11"/>
+      <c r="AP86" s="11"/>
+      <c r="AQ86" s="11"/>
+      <c r="AR86" s="11"/>
+      <c r="AS86" s="11"/>
+      <c r="AT86" s="11"/>
+      <c r="AU86" s="11"/>
+      <c r="AV86" s="11"/>
+      <c r="AW86" s="11"/>
+      <c r="AX86" s="11"/>
+      <c r="AY86" s="11"/>
+      <c r="AZ86" s="11"/>
+      <c r="BA86" s="11"/>
+      <c r="BB86" s="11"/>
+      <c r="BC86" s="11"/>
+      <c r="BD86" s="11"/>
+      <c r="BE86" s="11"/>
+      <c r="BF86" s="11"/>
+      <c r="BG86" s="11"/>
+      <c r="BH86" s="11"/>
+      <c r="BI86" s="11"/>
+      <c r="BJ86" s="11"/>
+      <c r="BK86" s="11"/>
+      <c r="BL86" s="11"/>
+      <c r="BM86" s="11"/>
+      <c r="BN86" s="11"/>
+      <c r="BO86" s="11"/>
+      <c r="BP86" s="11"/>
+      <c r="BQ86" s="11"/>
+      <c r="BR86" s="11"/>
+      <c r="BS86" s="11"/>
+      <c r="BT86" s="11"/>
+      <c r="BU86" s="11"/>
+      <c r="BV86" s="11"/>
     </row>
-    <row r="87" spans="1:74" s="3" customFormat="1">
+    <row r="87" spans="1:74" s="8" customFormat="1">
       <c r="A87"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
-      <c r="AH87" s="5"/>
-      <c r="AI87" s="5"/>
-      <c r="AJ87" s="5"/>
-      <c r="AK87" s="5"/>
-      <c r="AL87" s="5"/>
-      <c r="AM87" s="5"/>
-      <c r="AN87" s="5"/>
-      <c r="AO87" s="5"/>
-      <c r="AP87" s="5"/>
-      <c r="AQ87" s="5"/>
-      <c r="AR87" s="5"/>
-      <c r="AS87" s="5"/>
-      <c r="AT87" s="5"/>
-      <c r="AU87" s="5"/>
-      <c r="AV87" s="5"/>
-      <c r="AW87" s="5"/>
-      <c r="AX87" s="5"/>
-      <c r="AY87" s="5"/>
-      <c r="AZ87" s="5"/>
-      <c r="BA87" s="5"/>
-      <c r="BB87" s="5"/>
-      <c r="BC87" s="5"/>
-      <c r="BD87" s="5"/>
-      <c r="BE87" s="5"/>
-      <c r="BF87" s="5"/>
-      <c r="BG87" s="5"/>
-      <c r="BH87" s="5"/>
-      <c r="BI87" s="5"/>
-      <c r="BJ87" s="5"/>
-      <c r="BK87" s="5"/>
-      <c r="BL87" s="5"/>
-      <c r="BM87" s="5"/>
-      <c r="BN87" s="5"/>
-      <c r="BO87" s="5"/>
-      <c r="BP87" s="5"/>
-      <c r="BQ87" s="5"/>
-      <c r="BR87" s="5"/>
-      <c r="BS87" s="5"/>
-      <c r="BT87" s="5"/>
-      <c r="BU87" s="5"/>
-      <c r="BV87" s="5"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="11"/>
+      <c r="AD87" s="11"/>
+      <c r="AE87" s="11"/>
+      <c r="AF87" s="11"/>
+      <c r="AG87" s="11"/>
+      <c r="AH87" s="11"/>
+      <c r="AI87" s="11"/>
+      <c r="AJ87" s="11"/>
+      <c r="AK87" s="11"/>
+      <c r="AL87" s="11"/>
+      <c r="AM87" s="11"/>
+      <c r="AN87" s="11"/>
+      <c r="AO87" s="11"/>
+      <c r="AP87" s="11"/>
+      <c r="AQ87" s="11"/>
+      <c r="AR87" s="11"/>
+      <c r="AS87" s="11"/>
+      <c r="AT87" s="11"/>
+      <c r="AU87" s="11"/>
+      <c r="AV87" s="11"/>
+      <c r="AW87" s="11"/>
+      <c r="AX87" s="11"/>
+      <c r="AY87" s="11"/>
+      <c r="AZ87" s="11"/>
+      <c r="BA87" s="11"/>
+      <c r="BB87" s="11"/>
+      <c r="BC87" s="11"/>
+      <c r="BD87" s="11"/>
+      <c r="BE87" s="11"/>
+      <c r="BF87" s="11"/>
+      <c r="BG87" s="11"/>
+      <c r="BH87" s="11"/>
+      <c r="BI87" s="11"/>
+      <c r="BJ87" s="11"/>
+      <c r="BK87" s="11"/>
+      <c r="BL87" s="11"/>
+      <c r="BM87" s="11"/>
+      <c r="BN87" s="11"/>
+      <c r="BO87" s="11"/>
+      <c r="BP87" s="11"/>
+      <c r="BQ87" s="11"/>
+      <c r="BR87" s="11"/>
+      <c r="BS87" s="11"/>
+      <c r="BT87" s="11"/>
+      <c r="BU87" s="11"/>
+      <c r="BV87" s="11"/>
     </row>
-    <row r="88" spans="1:74" s="3" customFormat="1">
+    <row r="88" spans="1:74" s="8" customFormat="1">
       <c r="A88"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="5"/>
-      <c r="AH88" s="5"/>
-      <c r="AI88" s="5"/>
-      <c r="AJ88" s="5"/>
-      <c r="AK88" s="5"/>
-      <c r="AL88" s="5"/>
-      <c r="AM88" s="5"/>
-      <c r="AN88" s="5"/>
-      <c r="AO88" s="5"/>
-      <c r="AP88" s="5"/>
-      <c r="AQ88" s="5"/>
-      <c r="AR88" s="5"/>
-      <c r="AS88" s="5"/>
-      <c r="AT88" s="5"/>
-      <c r="AU88" s="5"/>
-      <c r="AV88" s="5"/>
-      <c r="AW88" s="5"/>
-      <c r="AX88" s="5"/>
-      <c r="AY88" s="5"/>
-      <c r="AZ88" s="5"/>
-      <c r="BA88" s="5"/>
-      <c r="BB88" s="5"/>
-      <c r="BC88" s="5"/>
-      <c r="BD88" s="5"/>
-      <c r="BE88" s="5"/>
-      <c r="BF88" s="5"/>
-      <c r="BG88" s="5"/>
-      <c r="BH88" s="5"/>
-      <c r="BI88" s="5"/>
-      <c r="BJ88" s="5"/>
-      <c r="BK88" s="5"/>
-      <c r="BL88" s="5"/>
-      <c r="BM88" s="5"/>
-      <c r="BN88" s="5"/>
-      <c r="BO88" s="5"/>
-      <c r="BP88" s="5"/>
-      <c r="BQ88" s="5"/>
-      <c r="BR88" s="5"/>
-      <c r="BS88" s="5"/>
-      <c r="BT88" s="5"/>
-      <c r="BU88" s="5"/>
-      <c r="BV88" s="5"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="11"/>
+      <c r="AB88" s="11"/>
+      <c r="AC88" s="11"/>
+      <c r="AD88" s="11"/>
+      <c r="AE88" s="11"/>
+      <c r="AF88" s="11"/>
+      <c r="AG88" s="11"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
+      <c r="AJ88" s="11"/>
+      <c r="AK88" s="11"/>
+      <c r="AL88" s="11"/>
+      <c r="AM88" s="11"/>
+      <c r="AN88" s="11"/>
+      <c r="AO88" s="11"/>
+      <c r="AP88" s="11"/>
+      <c r="AQ88" s="11"/>
+      <c r="AR88" s="11"/>
+      <c r="AS88" s="11"/>
+      <c r="AT88" s="11"/>
+      <c r="AU88" s="11"/>
+      <c r="AV88" s="11"/>
+      <c r="AW88" s="11"/>
+      <c r="AX88" s="11"/>
+      <c r="AY88" s="11"/>
+      <c r="AZ88" s="11"/>
+      <c r="BA88" s="11"/>
+      <c r="BB88" s="11"/>
+      <c r="BC88" s="11"/>
+      <c r="BD88" s="11"/>
+      <c r="BE88" s="11"/>
+      <c r="BF88" s="11"/>
+      <c r="BG88" s="11"/>
+      <c r="BH88" s="11"/>
+      <c r="BI88" s="11"/>
+      <c r="BJ88" s="11"/>
+      <c r="BK88" s="11"/>
+      <c r="BL88" s="11"/>
+      <c r="BM88" s="11"/>
+      <c r="BN88" s="11"/>
+      <c r="BO88" s="11"/>
+      <c r="BP88" s="11"/>
+      <c r="BQ88" s="11"/>
+      <c r="BR88" s="11"/>
+      <c r="BS88" s="11"/>
+      <c r="BT88" s="11"/>
+      <c r="BU88" s="11"/>
+      <c r="BV88" s="11"/>
     </row>
-    <row r="89" spans="1:74" s="3" customFormat="1">
+    <row r="89" spans="1:74" s="8" customFormat="1">
       <c r="A89"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5"/>
-      <c r="AF89" s="5"/>
-      <c r="AG89" s="5"/>
-      <c r="AH89" s="5"/>
-      <c r="AI89" s="5"/>
-      <c r="AJ89" s="5"/>
-      <c r="AK89" s="5"/>
-      <c r="AL89" s="5"/>
-      <c r="AM89" s="5"/>
-      <c r="AN89" s="5"/>
-      <c r="AO89" s="5"/>
-      <c r="AP89" s="5"/>
-      <c r="AQ89" s="5"/>
-      <c r="AR89" s="5"/>
-      <c r="AS89" s="5"/>
-      <c r="AT89" s="5"/>
-      <c r="AU89" s="5"/>
-      <c r="AV89" s="5"/>
-      <c r="AW89" s="5"/>
-      <c r="AX89" s="5"/>
-      <c r="AY89" s="5"/>
-      <c r="AZ89" s="5"/>
-      <c r="BA89" s="5"/>
-      <c r="BB89" s="5"/>
-      <c r="BC89" s="5"/>
-      <c r="BD89" s="5"/>
-      <c r="BE89" s="5"/>
-      <c r="BF89" s="5"/>
-      <c r="BG89" s="5"/>
-      <c r="BH89" s="5"/>
-      <c r="BI89" s="5"/>
-      <c r="BJ89" s="5"/>
-      <c r="BK89" s="5"/>
-      <c r="BL89" s="5"/>
-      <c r="BM89" s="5"/>
-      <c r="BN89" s="5"/>
-      <c r="BO89" s="5"/>
-      <c r="BP89" s="5"/>
-      <c r="BQ89" s="5"/>
-      <c r="BR89" s="5"/>
-      <c r="BS89" s="5"/>
-      <c r="BT89" s="5"/>
-      <c r="BU89" s="5"/>
-      <c r="BV89" s="5"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+      <c r="AA89" s="11"/>
+      <c r="AB89" s="11"/>
+      <c r="AC89" s="11"/>
+      <c r="AD89" s="11"/>
+      <c r="AE89" s="11"/>
+      <c r="AF89" s="11"/>
+      <c r="AG89" s="11"/>
+      <c r="AH89" s="11"/>
+      <c r="AI89" s="11"/>
+      <c r="AJ89" s="11"/>
+      <c r="AK89" s="11"/>
+      <c r="AL89" s="11"/>
+      <c r="AM89" s="11"/>
+      <c r="AN89" s="11"/>
+      <c r="AO89" s="11"/>
+      <c r="AP89" s="11"/>
+      <c r="AQ89" s="11"/>
+      <c r="AR89" s="11"/>
+      <c r="AS89" s="11"/>
+      <c r="AT89" s="11"/>
+      <c r="AU89" s="11"/>
+      <c r="AV89" s="11"/>
+      <c r="AW89" s="11"/>
+      <c r="AX89" s="11"/>
+      <c r="AY89" s="11"/>
+      <c r="AZ89" s="11"/>
+      <c r="BA89" s="11"/>
+      <c r="BB89" s="11"/>
+      <c r="BC89" s="11"/>
+      <c r="BD89" s="11"/>
+      <c r="BE89" s="11"/>
+      <c r="BF89" s="11"/>
+      <c r="BG89" s="11"/>
+      <c r="BH89" s="11"/>
+      <c r="BI89" s="11"/>
+      <c r="BJ89" s="11"/>
+      <c r="BK89" s="11"/>
+      <c r="BL89" s="11"/>
+      <c r="BM89" s="11"/>
+      <c r="BN89" s="11"/>
+      <c r="BO89" s="11"/>
+      <c r="BP89" s="11"/>
+      <c r="BQ89" s="11"/>
+      <c r="BR89" s="11"/>
+      <c r="BS89" s="11"/>
+      <c r="BT89" s="11"/>
+      <c r="BU89" s="11"/>
+      <c r="BV89" s="11"/>
     </row>
-    <row r="90" spans="1:74" s="3" customFormat="1">
+    <row r="90" spans="1:74" s="8" customFormat="1">
       <c r="A90"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5"/>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
-      <c r="AQ90" s="5"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5"/>
-      <c r="AT90" s="5"/>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="5"/>
-      <c r="BA90" s="5"/>
-      <c r="BB90" s="5"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="5"/>
-      <c r="BE90" s="5"/>
-      <c r="BF90" s="5"/>
-      <c r="BG90" s="5"/>
-      <c r="BH90" s="5"/>
-      <c r="BI90" s="5"/>
-      <c r="BJ90" s="5"/>
-      <c r="BK90" s="5"/>
-      <c r="BL90" s="5"/>
-      <c r="BM90" s="5"/>
-      <c r="BN90" s="5"/>
-      <c r="BO90" s="5"/>
-      <c r="BP90" s="5"/>
-      <c r="BQ90" s="5"/>
-      <c r="BR90" s="5"/>
-      <c r="BS90" s="5"/>
-      <c r="BT90" s="5"/>
-      <c r="BU90" s="5"/>
-      <c r="BV90" s="5"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+      <c r="AA90" s="11"/>
+      <c r="AB90" s="11"/>
+      <c r="AC90" s="11"/>
+      <c r="AD90" s="11"/>
+      <c r="AE90" s="11"/>
+      <c r="AF90" s="11"/>
+      <c r="AG90" s="11"/>
+      <c r="AH90" s="11"/>
+      <c r="AI90" s="11"/>
+      <c r="AJ90" s="11"/>
+      <c r="AK90" s="11"/>
+      <c r="AL90" s="11"/>
+      <c r="AM90" s="11"/>
+      <c r="AN90" s="11"/>
+      <c r="AO90" s="11"/>
+      <c r="AP90" s="11"/>
+      <c r="AQ90" s="11"/>
+      <c r="AR90" s="11"/>
+      <c r="AS90" s="11"/>
+      <c r="AT90" s="11"/>
+      <c r="AU90" s="11"/>
+      <c r="AV90" s="11"/>
+      <c r="AW90" s="11"/>
+      <c r="AX90" s="11"/>
+      <c r="AY90" s="11"/>
+      <c r="AZ90" s="11"/>
+      <c r="BA90" s="11"/>
+      <c r="BB90" s="11"/>
+      <c r="BC90" s="11"/>
+      <c r="BD90" s="11"/>
+      <c r="BE90" s="11"/>
+      <c r="BF90" s="11"/>
+      <c r="BG90" s="11"/>
+      <c r="BH90" s="11"/>
+      <c r="BI90" s="11"/>
+      <c r="BJ90" s="11"/>
+      <c r="BK90" s="11"/>
+      <c r="BL90" s="11"/>
+      <c r="BM90" s="11"/>
+      <c r="BN90" s="11"/>
+      <c r="BO90" s="11"/>
+      <c r="BP90" s="11"/>
+      <c r="BQ90" s="11"/>
+      <c r="BR90" s="11"/>
+      <c r="BS90" s="11"/>
+      <c r="BT90" s="11"/>
+      <c r="BU90" s="11"/>
+      <c r="BV90" s="11"/>
     </row>
-    <row r="91" spans="1:74" s="3" customFormat="1">
+    <row r="91" spans="1:74" s="8" customFormat="1">
       <c r="A91"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5"/>
-      <c r="AF91" s="5"/>
-      <c r="AG91" s="5"/>
-      <c r="AH91" s="5"/>
-      <c r="AI91" s="5"/>
-      <c r="AJ91" s="5"/>
-      <c r="AK91" s="5"/>
-      <c r="AL91" s="5"/>
-      <c r="AM91" s="5"/>
-      <c r="AN91" s="5"/>
-      <c r="AO91" s="5"/>
-      <c r="AP91" s="5"/>
-      <c r="AQ91" s="5"/>
-      <c r="AR91" s="5"/>
-      <c r="AS91" s="5"/>
-      <c r="AT91" s="5"/>
-      <c r="AU91" s="5"/>
-      <c r="AV91" s="5"/>
-      <c r="AW91" s="5"/>
-      <c r="AX91" s="5"/>
-      <c r="AY91" s="5"/>
-      <c r="AZ91" s="5"/>
-      <c r="BA91" s="5"/>
-      <c r="BB91" s="5"/>
-      <c r="BC91" s="5"/>
-      <c r="BD91" s="5"/>
-      <c r="BE91" s="5"/>
-      <c r="BF91" s="5"/>
-      <c r="BG91" s="5"/>
-      <c r="BH91" s="5"/>
-      <c r="BI91" s="5"/>
-      <c r="BJ91" s="5"/>
-      <c r="BK91" s="5"/>
-      <c r="BL91" s="5"/>
-      <c r="BM91" s="5"/>
-      <c r="BN91" s="5"/>
-      <c r="BO91" s="5"/>
-      <c r="BP91" s="5"/>
-      <c r="BQ91" s="5"/>
-      <c r="BR91" s="5"/>
-      <c r="BS91" s="5"/>
-      <c r="BT91" s="5"/>
-      <c r="BU91" s="5"/>
-      <c r="BV91" s="5"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+      <c r="AA91" s="11"/>
+      <c r="AB91" s="11"/>
+      <c r="AC91" s="11"/>
+      <c r="AD91" s="11"/>
+      <c r="AE91" s="11"/>
+      <c r="AF91" s="11"/>
+      <c r="AG91" s="11"/>
+      <c r="AH91" s="11"/>
+      <c r="AI91" s="11"/>
+      <c r="AJ91" s="11"/>
+      <c r="AK91" s="11"/>
+      <c r="AL91" s="11"/>
+      <c r="AM91" s="11"/>
+      <c r="AN91" s="11"/>
+      <c r="AO91" s="11"/>
+      <c r="AP91" s="11"/>
+      <c r="AQ91" s="11"/>
+      <c r="AR91" s="11"/>
+      <c r="AS91" s="11"/>
+      <c r="AT91" s="11"/>
+      <c r="AU91" s="11"/>
+      <c r="AV91" s="11"/>
+      <c r="AW91" s="11"/>
+      <c r="AX91" s="11"/>
+      <c r="AY91" s="11"/>
+      <c r="AZ91" s="11"/>
+      <c r="BA91" s="11"/>
+      <c r="BB91" s="11"/>
+      <c r="BC91" s="11"/>
+      <c r="BD91" s="11"/>
+      <c r="BE91" s="11"/>
+      <c r="BF91" s="11"/>
+      <c r="BG91" s="11"/>
+      <c r="BH91" s="11"/>
+      <c r="BI91" s="11"/>
+      <c r="BJ91" s="11"/>
+      <c r="BK91" s="11"/>
+      <c r="BL91" s="11"/>
+      <c r="BM91" s="11"/>
+      <c r="BN91" s="11"/>
+      <c r="BO91" s="11"/>
+      <c r="BP91" s="11"/>
+      <c r="BQ91" s="11"/>
+      <c r="BR91" s="11"/>
+      <c r="BS91" s="11"/>
+      <c r="BT91" s="11"/>
+      <c r="BU91" s="11"/>
+      <c r="BV91" s="11"/>
     </row>
-    <row r="92" spans="1:74" s="3" customFormat="1">
+    <row r="92" spans="1:74" s="8" customFormat="1">
       <c r="A92"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="5"/>
-      <c r="AC92" s="5"/>
-      <c r="AD92" s="5"/>
-      <c r="AE92" s="5"/>
-      <c r="AF92" s="5"/>
-      <c r="AG92" s="5"/>
-      <c r="AH92" s="5"/>
-      <c r="AI92" s="5"/>
-      <c r="AJ92" s="5"/>
-      <c r="AK92" s="5"/>
-      <c r="AL92" s="5"/>
-      <c r="AM92" s="5"/>
-      <c r="AN92" s="5"/>
-      <c r="AO92" s="5"/>
-      <c r="AP92" s="5"/>
-      <c r="AQ92" s="5"/>
-      <c r="AR92" s="5"/>
-      <c r="AS92" s="5"/>
-      <c r="AT92" s="5"/>
-      <c r="AU92" s="5"/>
-      <c r="AV92" s="5"/>
-      <c r="AW92" s="5"/>
-      <c r="AX92" s="5"/>
-      <c r="AY92" s="5"/>
-      <c r="AZ92" s="5"/>
-      <c r="BA92" s="5"/>
-      <c r="BB92" s="5"/>
-      <c r="BC92" s="5"/>
-      <c r="BD92" s="5"/>
-      <c r="BE92" s="5"/>
-      <c r="BF92" s="5"/>
-      <c r="BG92" s="5"/>
-      <c r="BH92" s="5"/>
-      <c r="BI92" s="5"/>
-      <c r="BJ92" s="5"/>
-      <c r="BK92" s="5"/>
-      <c r="BL92" s="5"/>
-      <c r="BM92" s="5"/>
-      <c r="BN92" s="5"/>
-      <c r="BO92" s="5"/>
-      <c r="BP92" s="5"/>
-      <c r="BQ92" s="5"/>
-      <c r="BR92" s="5"/>
-      <c r="BS92" s="5"/>
-      <c r="BT92" s="5"/>
-      <c r="BU92" s="5"/>
-      <c r="BV92" s="5"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="11"/>
+      <c r="AB92" s="11"/>
+      <c r="AC92" s="11"/>
+      <c r="AD92" s="11"/>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+      <c r="AG92" s="11"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+      <c r="AN92" s="11"/>
+      <c r="AO92" s="11"/>
+      <c r="AP92" s="11"/>
+      <c r="AQ92" s="11"/>
+      <c r="AR92" s="11"/>
+      <c r="AS92" s="11"/>
+      <c r="AT92" s="11"/>
+      <c r="AU92" s="11"/>
+      <c r="AV92" s="11"/>
+      <c r="AW92" s="11"/>
+      <c r="AX92" s="11"/>
+      <c r="AY92" s="11"/>
+      <c r="AZ92" s="11"/>
+      <c r="BA92" s="11"/>
+      <c r="BB92" s="11"/>
+      <c r="BC92" s="11"/>
+      <c r="BD92" s="11"/>
+      <c r="BE92" s="11"/>
+      <c r="BF92" s="11"/>
+      <c r="BG92" s="11"/>
+      <c r="BH92" s="11"/>
+      <c r="BI92" s="11"/>
+      <c r="BJ92" s="11"/>
+      <c r="BK92" s="11"/>
+      <c r="BL92" s="11"/>
+      <c r="BM92" s="11"/>
+      <c r="BN92" s="11"/>
+      <c r="BO92" s="11"/>
+      <c r="BP92" s="11"/>
+      <c r="BQ92" s="11"/>
+      <c r="BR92" s="11"/>
+      <c r="BS92" s="11"/>
+      <c r="BT92" s="11"/>
+      <c r="BU92" s="11"/>
+      <c r="BV92" s="11"/>
     </row>
-    <row r="93" spans="1:74" s="3" customFormat="1">
+    <row r="93" spans="1:74" s="8" customFormat="1">
       <c r="A93"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5"/>
-      <c r="AF93" s="5"/>
-      <c r="AG93" s="5"/>
-      <c r="AH93" s="5"/>
-      <c r="AI93" s="5"/>
-      <c r="AJ93" s="5"/>
-      <c r="AK93" s="5"/>
-      <c r="AL93" s="5"/>
-      <c r="AM93" s="5"/>
-      <c r="AN93" s="5"/>
-      <c r="AO93" s="5"/>
-      <c r="AP93" s="5"/>
-      <c r="AQ93" s="5"/>
-      <c r="AR93" s="5"/>
-      <c r="AS93" s="5"/>
-      <c r="AT93" s="5"/>
-      <c r="AU93" s="5"/>
-      <c r="AV93" s="5"/>
-      <c r="AW93" s="5"/>
-      <c r="AX93" s="5"/>
-      <c r="AY93" s="5"/>
-      <c r="AZ93" s="5"/>
-      <c r="BA93" s="5"/>
-      <c r="BB93" s="5"/>
-      <c r="BC93" s="5"/>
-      <c r="BD93" s="5"/>
-      <c r="BE93" s="5"/>
-      <c r="BF93" s="5"/>
-      <c r="BG93" s="5"/>
-      <c r="BH93" s="5"/>
-      <c r="BI93" s="5"/>
-      <c r="BJ93" s="5"/>
-      <c r="BK93" s="5"/>
-      <c r="BL93" s="5"/>
-      <c r="BM93" s="5"/>
-      <c r="BN93" s="5"/>
-      <c r="BO93" s="5"/>
-      <c r="BP93" s="5"/>
-      <c r="BQ93" s="5"/>
-      <c r="BR93" s="5"/>
-      <c r="BS93" s="5"/>
-      <c r="BT93" s="5"/>
-      <c r="BU93" s="5"/>
-      <c r="BV93" s="5"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+      <c r="AA93" s="11"/>
+      <c r="AB93" s="11"/>
+      <c r="AC93" s="11"/>
+      <c r="AD93" s="11"/>
+      <c r="AE93" s="11"/>
+      <c r="AF93" s="11"/>
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11"/>
+      <c r="AJ93" s="11"/>
+      <c r="AK93" s="11"/>
+      <c r="AL93" s="11"/>
+      <c r="AM93" s="11"/>
+      <c r="AN93" s="11"/>
+      <c r="AO93" s="11"/>
+      <c r="AP93" s="11"/>
+      <c r="AQ93" s="11"/>
+      <c r="AR93" s="11"/>
+      <c r="AS93" s="11"/>
+      <c r="AT93" s="11"/>
+      <c r="AU93" s="11"/>
+      <c r="AV93" s="11"/>
+      <c r="AW93" s="11"/>
+      <c r="AX93" s="11"/>
+      <c r="AY93" s="11"/>
+      <c r="AZ93" s="11"/>
+      <c r="BA93" s="11"/>
+      <c r="BB93" s="11"/>
+      <c r="BC93" s="11"/>
+      <c r="BD93" s="11"/>
+      <c r="BE93" s="11"/>
+      <c r="BF93" s="11"/>
+      <c r="BG93" s="11"/>
+      <c r="BH93" s="11"/>
+      <c r="BI93" s="11"/>
+      <c r="BJ93" s="11"/>
+      <c r="BK93" s="11"/>
+      <c r="BL93" s="11"/>
+      <c r="BM93" s="11"/>
+      <c r="BN93" s="11"/>
+      <c r="BO93" s="11"/>
+      <c r="BP93" s="11"/>
+      <c r="BQ93" s="11"/>
+      <c r="BR93" s="11"/>
+      <c r="BS93" s="11"/>
+      <c r="BT93" s="11"/>
+      <c r="BU93" s="11"/>
+      <c r="BV93" s="11"/>
     </row>
-    <row r="94" spans="1:74" s="3" customFormat="1">
+    <row r="94" spans="1:74" s="8" customFormat="1">
       <c r="A94"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5"/>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5"/>
-      <c r="AH94" s="5"/>
-      <c r="AI94" s="5"/>
-      <c r="AJ94" s="5"/>
-      <c r="AK94" s="5"/>
-      <c r="AL94" s="5"/>
-      <c r="AM94" s="5"/>
-      <c r="AN94" s="5"/>
-      <c r="AO94" s="5"/>
-      <c r="AP94" s="5"/>
-      <c r="AQ94" s="5"/>
-      <c r="AR94" s="5"/>
-      <c r="AS94" s="5"/>
-      <c r="AT94" s="5"/>
-      <c r="AU94" s="5"/>
-      <c r="AV94" s="5"/>
-      <c r="AW94" s="5"/>
-      <c r="AX94" s="5"/>
-      <c r="AY94" s="5"/>
-      <c r="AZ94" s="5"/>
-      <c r="BA94" s="5"/>
-      <c r="BB94" s="5"/>
-      <c r="BC94" s="5"/>
-      <c r="BD94" s="5"/>
-      <c r="BE94" s="5"/>
-      <c r="BF94" s="5"/>
-      <c r="BG94" s="5"/>
-      <c r="BH94" s="5"/>
-      <c r="BI94" s="5"/>
-      <c r="BJ94" s="5"/>
-      <c r="BK94" s="5"/>
-      <c r="BL94" s="5"/>
-      <c r="BM94" s="5"/>
-      <c r="BN94" s="5"/>
-      <c r="BO94" s="5"/>
-      <c r="BP94" s="5"/>
-      <c r="BQ94" s="5"/>
-      <c r="BR94" s="5"/>
-      <c r="BS94" s="5"/>
-      <c r="BT94" s="5"/>
-      <c r="BU94" s="5"/>
-      <c r="BV94" s="5"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="11"/>
+      <c r="AB94" s="11"/>
+      <c r="AC94" s="11"/>
+      <c r="AD94" s="11"/>
+      <c r="AE94" s="11"/>
+      <c r="AF94" s="11"/>
+      <c r="AG94" s="11"/>
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11"/>
+      <c r="AJ94" s="11"/>
+      <c r="AK94" s="11"/>
+      <c r="AL94" s="11"/>
+      <c r="AM94" s="11"/>
+      <c r="AN94" s="11"/>
+      <c r="AO94" s="11"/>
+      <c r="AP94" s="11"/>
+      <c r="AQ94" s="11"/>
+      <c r="AR94" s="11"/>
+      <c r="AS94" s="11"/>
+      <c r="AT94" s="11"/>
+      <c r="AU94" s="11"/>
+      <c r="AV94" s="11"/>
+      <c r="AW94" s="11"/>
+      <c r="AX94" s="11"/>
+      <c r="AY94" s="11"/>
+      <c r="AZ94" s="11"/>
+      <c r="BA94" s="11"/>
+      <c r="BB94" s="11"/>
+      <c r="BC94" s="11"/>
+      <c r="BD94" s="11"/>
+      <c r="BE94" s="11"/>
+      <c r="BF94" s="11"/>
+      <c r="BG94" s="11"/>
+      <c r="BH94" s="11"/>
+      <c r="BI94" s="11"/>
+      <c r="BJ94" s="11"/>
+      <c r="BK94" s="11"/>
+      <c r="BL94" s="11"/>
+      <c r="BM94" s="11"/>
+      <c r="BN94" s="11"/>
+      <c r="BO94" s="11"/>
+      <c r="BP94" s="11"/>
+      <c r="BQ94" s="11"/>
+      <c r="BR94" s="11"/>
+      <c r="BS94" s="11"/>
+      <c r="BT94" s="11"/>
+      <c r="BU94" s="11"/>
+      <c r="BV94" s="11"/>
     </row>
-    <row r="95" spans="1:74" s="3" customFormat="1">
+    <row r="95" spans="1:74" s="8" customFormat="1">
       <c r="A95"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="5"/>
-      <c r="AD95" s="5"/>
-      <c r="AE95" s="5"/>
-      <c r="AF95" s="5"/>
-      <c r="AG95" s="5"/>
-      <c r="AH95" s="5"/>
-      <c r="AI95" s="5"/>
-      <c r="AJ95" s="5"/>
-      <c r="AK95" s="5"/>
-      <c r="AL95" s="5"/>
-      <c r="AM95" s="5"/>
-      <c r="AN95" s="5"/>
-      <c r="AO95" s="5"/>
-      <c r="AP95" s="5"/>
-      <c r="AQ95" s="5"/>
-      <c r="AR95" s="5"/>
-      <c r="AS95" s="5"/>
-      <c r="AT95" s="5"/>
-      <c r="AU95" s="5"/>
-      <c r="AV95" s="5"/>
-      <c r="AW95" s="5"/>
-      <c r="AX95" s="5"/>
-      <c r="AY95" s="5"/>
-      <c r="AZ95" s="5"/>
-      <c r="BA95" s="5"/>
-      <c r="BB95" s="5"/>
-      <c r="BC95" s="5"/>
-      <c r="BD95" s="5"/>
-      <c r="BE95" s="5"/>
-      <c r="BF95" s="5"/>
-      <c r="BG95" s="5"/>
-      <c r="BH95" s="5"/>
-      <c r="BI95" s="5"/>
-      <c r="BJ95" s="5"/>
-      <c r="BK95" s="5"/>
-      <c r="BL95" s="5"/>
-      <c r="BM95" s="5"/>
-      <c r="BN95" s="5"/>
-      <c r="BO95" s="5"/>
-      <c r="BP95" s="5"/>
-      <c r="BQ95" s="5"/>
-      <c r="BR95" s="5"/>
-      <c r="BS95" s="5"/>
-      <c r="BT95" s="5"/>
-      <c r="BU95" s="5"/>
-      <c r="BV95" s="5"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="11"/>
+      <c r="AB95" s="11"/>
+      <c r="AC95" s="11"/>
+      <c r="AD95" s="11"/>
+      <c r="AE95" s="11"/>
+      <c r="AF95" s="11"/>
+      <c r="AG95" s="11"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11"/>
+      <c r="AJ95" s="11"/>
+      <c r="AK95" s="11"/>
+      <c r="AL95" s="11"/>
+      <c r="AM95" s="11"/>
+      <c r="AN95" s="11"/>
+      <c r="AO95" s="11"/>
+      <c r="AP95" s="11"/>
+      <c r="AQ95" s="11"/>
+      <c r="AR95" s="11"/>
+      <c r="AS95" s="11"/>
+      <c r="AT95" s="11"/>
+      <c r="AU95" s="11"/>
+      <c r="AV95" s="11"/>
+      <c r="AW95" s="11"/>
+      <c r="AX95" s="11"/>
+      <c r="AY95" s="11"/>
+      <c r="AZ95" s="11"/>
+      <c r="BA95" s="11"/>
+      <c r="BB95" s="11"/>
+      <c r="BC95" s="11"/>
+      <c r="BD95" s="11"/>
+      <c r="BE95" s="11"/>
+      <c r="BF95" s="11"/>
+      <c r="BG95" s="11"/>
+      <c r="BH95" s="11"/>
+      <c r="BI95" s="11"/>
+      <c r="BJ95" s="11"/>
+      <c r="BK95" s="11"/>
+      <c r="BL95" s="11"/>
+      <c r="BM95" s="11"/>
+      <c r="BN95" s="11"/>
+      <c r="BO95" s="11"/>
+      <c r="BP95" s="11"/>
+      <c r="BQ95" s="11"/>
+      <c r="BR95" s="11"/>
+      <c r="BS95" s="11"/>
+      <c r="BT95" s="11"/>
+      <c r="BU95" s="11"/>
+      <c r="BV95" s="11"/>
     </row>
-    <row r="96" spans="1:74" s="3" customFormat="1">
+    <row r="96" spans="1:74" s="8" customFormat="1">
       <c r="A96"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
-      <c r="AB96" s="5"/>
-      <c r="AC96" s="5"/>
-      <c r="AD96" s="5"/>
-      <c r="AE96" s="5"/>
-      <c r="AF96" s="5"/>
-      <c r="AG96" s="5"/>
-      <c r="AH96" s="5"/>
-      <c r="AI96" s="5"/>
-      <c r="AJ96" s="5"/>
-      <c r="AK96" s="5"/>
-      <c r="AL96" s="5"/>
-      <c r="AM96" s="5"/>
-      <c r="AN96" s="5"/>
-      <c r="AO96" s="5"/>
-      <c r="AP96" s="5"/>
-      <c r="AQ96" s="5"/>
-      <c r="AR96" s="5"/>
-      <c r="AS96" s="5"/>
-      <c r="AT96" s="5"/>
-      <c r="AU96" s="5"/>
-      <c r="AV96" s="5"/>
-      <c r="AW96" s="5"/>
-      <c r="AX96" s="5"/>
-      <c r="AY96" s="5"/>
-      <c r="AZ96" s="5"/>
-      <c r="BA96" s="5"/>
-      <c r="BB96" s="5"/>
-      <c r="BC96" s="5"/>
-      <c r="BD96" s="5"/>
-      <c r="BE96" s="5"/>
-      <c r="BF96" s="5"/>
-      <c r="BG96" s="5"/>
-      <c r="BH96" s="5"/>
-      <c r="BI96" s="5"/>
-      <c r="BJ96" s="5"/>
-      <c r="BK96" s="5"/>
-      <c r="BL96" s="5"/>
-      <c r="BM96" s="5"/>
-      <c r="BN96" s="5"/>
-      <c r="BO96" s="5"/>
-      <c r="BP96" s="5"/>
-      <c r="BQ96" s="5"/>
-      <c r="BR96" s="5"/>
-      <c r="BS96" s="5"/>
-      <c r="BT96" s="5"/>
-      <c r="BU96" s="5"/>
-      <c r="BV96" s="5"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="11"/>
+      <c r="AB96" s="11"/>
+      <c r="AC96" s="11"/>
+      <c r="AD96" s="11"/>
+      <c r="AE96" s="11"/>
+      <c r="AF96" s="11"/>
+      <c r="AG96" s="11"/>
+      <c r="AH96" s="11"/>
+      <c r="AI96" s="11"/>
+      <c r="AJ96" s="11"/>
+      <c r="AK96" s="11"/>
+      <c r="AL96" s="11"/>
+      <c r="AM96" s="11"/>
+      <c r="AN96" s="11"/>
+      <c r="AO96" s="11"/>
+      <c r="AP96" s="11"/>
+      <c r="AQ96" s="11"/>
+      <c r="AR96" s="11"/>
+      <c r="AS96" s="11"/>
+      <c r="AT96" s="11"/>
+      <c r="AU96" s="11"/>
+      <c r="AV96" s="11"/>
+      <c r="AW96" s="11"/>
+      <c r="AX96" s="11"/>
+      <c r="AY96" s="11"/>
+      <c r="AZ96" s="11"/>
+      <c r="BA96" s="11"/>
+      <c r="BB96" s="11"/>
+      <c r="BC96" s="11"/>
+      <c r="BD96" s="11"/>
+      <c r="BE96" s="11"/>
+      <c r="BF96" s="11"/>
+      <c r="BG96" s="11"/>
+      <c r="BH96" s="11"/>
+      <c r="BI96" s="11"/>
+      <c r="BJ96" s="11"/>
+      <c r="BK96" s="11"/>
+      <c r="BL96" s="11"/>
+      <c r="BM96" s="11"/>
+      <c r="BN96" s="11"/>
+      <c r="BO96" s="11"/>
+      <c r="BP96" s="11"/>
+      <c r="BQ96" s="11"/>
+      <c r="BR96" s="11"/>
+      <c r="BS96" s="11"/>
+      <c r="BT96" s="11"/>
+      <c r="BU96" s="11"/>
+      <c r="BV96" s="11"/>
     </row>
-    <row r="97" spans="1:74" s="3" customFormat="1">
+    <row r="97" spans="1:74" s="8" customFormat="1">
       <c r="A97"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="5"/>
-      <c r="AC97" s="5"/>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="5"/>
-      <c r="AF97" s="5"/>
-      <c r="AG97" s="5"/>
-      <c r="AH97" s="5"/>
-      <c r="AI97" s="5"/>
-      <c r="AJ97" s="5"/>
-      <c r="AK97" s="5"/>
-      <c r="AL97" s="5"/>
-      <c r="AM97" s="5"/>
-      <c r="AN97" s="5"/>
-      <c r="AO97" s="5"/>
-      <c r="AP97" s="5"/>
-      <c r="AQ97" s="5"/>
-      <c r="AR97" s="5"/>
-      <c r="AS97" s="5"/>
-      <c r="AT97" s="5"/>
-      <c r="AU97" s="5"/>
-      <c r="AV97" s="5"/>
-      <c r="AW97" s="5"/>
-      <c r="AX97" s="5"/>
-      <c r="AY97" s="5"/>
-      <c r="AZ97" s="5"/>
-      <c r="BA97" s="5"/>
-      <c r="BB97" s="5"/>
-      <c r="BC97" s="5"/>
-      <c r="BD97" s="5"/>
-      <c r="BE97" s="5"/>
-      <c r="BF97" s="5"/>
-      <c r="BG97" s="5"/>
-      <c r="BH97" s="5"/>
-      <c r="BI97" s="5"/>
-      <c r="BJ97" s="5"/>
-      <c r="BK97" s="5"/>
-      <c r="BL97" s="5"/>
-      <c r="BM97" s="5"/>
-      <c r="BN97" s="5"/>
-      <c r="BO97" s="5"/>
-      <c r="BP97" s="5"/>
-      <c r="BQ97" s="5"/>
-      <c r="BR97" s="5"/>
-      <c r="BS97" s="5"/>
-      <c r="BT97" s="5"/>
-      <c r="BU97" s="5"/>
-      <c r="BV97" s="5"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="11"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="11"/>
+      <c r="AF97" s="11"/>
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="11"/>
+      <c r="AK97" s="11"/>
+      <c r="AL97" s="11"/>
+      <c r="AM97" s="11"/>
+      <c r="AN97" s="11"/>
+      <c r="AO97" s="11"/>
+      <c r="AP97" s="11"/>
+      <c r="AQ97" s="11"/>
+      <c r="AR97" s="11"/>
+      <c r="AS97" s="11"/>
+      <c r="AT97" s="11"/>
+      <c r="AU97" s="11"/>
+      <c r="AV97" s="11"/>
+      <c r="AW97" s="11"/>
+      <c r="AX97" s="11"/>
+      <c r="AY97" s="11"/>
+      <c r="AZ97" s="11"/>
+      <c r="BA97" s="11"/>
+      <c r="BB97" s="11"/>
+      <c r="BC97" s="11"/>
+      <c r="BD97" s="11"/>
+      <c r="BE97" s="11"/>
+      <c r="BF97" s="11"/>
+      <c r="BG97" s="11"/>
+      <c r="BH97" s="11"/>
+      <c r="BI97" s="11"/>
+      <c r="BJ97" s="11"/>
+      <c r="BK97" s="11"/>
+      <c r="BL97" s="11"/>
+      <c r="BM97" s="11"/>
+      <c r="BN97" s="11"/>
+      <c r="BO97" s="11"/>
+      <c r="BP97" s="11"/>
+      <c r="BQ97" s="11"/>
+      <c r="BR97" s="11"/>
+      <c r="BS97" s="11"/>
+      <c r="BT97" s="11"/>
+      <c r="BU97" s="11"/>
+      <c r="BV97" s="11"/>
     </row>
-    <row r="98" spans="1:74" s="3" customFormat="1">
+    <row r="98" spans="1:74" s="8" customFormat="1">
       <c r="A98"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
-      <c r="AB98" s="5"/>
-      <c r="AC98" s="5"/>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="5"/>
-      <c r="AF98" s="5"/>
-      <c r="AG98" s="5"/>
-      <c r="AH98" s="5"/>
-      <c r="AI98" s="5"/>
-      <c r="AJ98" s="5"/>
-      <c r="AK98" s="5"/>
-      <c r="AL98" s="5"/>
-      <c r="AM98" s="5"/>
-      <c r="AN98" s="5"/>
-      <c r="AO98" s="5"/>
-      <c r="AP98" s="5"/>
-      <c r="AQ98" s="5"/>
-      <c r="AR98" s="5"/>
-      <c r="AS98" s="5"/>
-      <c r="AT98" s="5"/>
-      <c r="AU98" s="5"/>
-      <c r="AV98" s="5"/>
-      <c r="AW98" s="5"/>
-      <c r="AX98" s="5"/>
-      <c r="AY98" s="5"/>
-      <c r="AZ98" s="5"/>
-      <c r="BA98" s="5"/>
-      <c r="BB98" s="5"/>
-      <c r="BC98" s="5"/>
-      <c r="BD98" s="5"/>
-      <c r="BE98" s="5"/>
-      <c r="BF98" s="5"/>
-      <c r="BG98" s="5"/>
-      <c r="BH98" s="5"/>
-      <c r="BI98" s="5"/>
-      <c r="BJ98" s="5"/>
-      <c r="BK98" s="5"/>
-      <c r="BL98" s="5"/>
-      <c r="BM98" s="5"/>
-      <c r="BN98" s="5"/>
-      <c r="BO98" s="5"/>
-      <c r="BP98" s="5"/>
-      <c r="BQ98" s="5"/>
-      <c r="BR98" s="5"/>
-      <c r="BS98" s="5"/>
-      <c r="BT98" s="5"/>
-      <c r="BU98" s="5"/>
-      <c r="BV98" s="5"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="11"/>
+      <c r="AB98" s="11"/>
+      <c r="AC98" s="11"/>
+      <c r="AD98" s="11"/>
+      <c r="AE98" s="11"/>
+      <c r="AF98" s="11"/>
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="11"/>
+      <c r="AI98" s="11"/>
+      <c r="AJ98" s="11"/>
+      <c r="AK98" s="11"/>
+      <c r="AL98" s="11"/>
+      <c r="AM98" s="11"/>
+      <c r="AN98" s="11"/>
+      <c r="AO98" s="11"/>
+      <c r="AP98" s="11"/>
+      <c r="AQ98" s="11"/>
+      <c r="AR98" s="11"/>
+      <c r="AS98" s="11"/>
+      <c r="AT98" s="11"/>
+      <c r="AU98" s="11"/>
+      <c r="AV98" s="11"/>
+      <c r="AW98" s="11"/>
+      <c r="AX98" s="11"/>
+      <c r="AY98" s="11"/>
+      <c r="AZ98" s="11"/>
+      <c r="BA98" s="11"/>
+      <c r="BB98" s="11"/>
+      <c r="BC98" s="11"/>
+      <c r="BD98" s="11"/>
+      <c r="BE98" s="11"/>
+      <c r="BF98" s="11"/>
+      <c r="BG98" s="11"/>
+      <c r="BH98" s="11"/>
+      <c r="BI98" s="11"/>
+      <c r="BJ98" s="11"/>
+      <c r="BK98" s="11"/>
+      <c r="BL98" s="11"/>
+      <c r="BM98" s="11"/>
+      <c r="BN98" s="11"/>
+      <c r="BO98" s="11"/>
+      <c r="BP98" s="11"/>
+      <c r="BQ98" s="11"/>
+      <c r="BR98" s="11"/>
+      <c r="BS98" s="11"/>
+      <c r="BT98" s="11"/>
+      <c r="BU98" s="11"/>
+      <c r="BV98" s="11"/>
     </row>
     <row r="99" spans="1:74" s="3" customFormat="1">
       <c r="A99"/>
@@ -12171,6 +13479,2134 @@
       <c r="BU126" s="5"/>
       <c r="BV126" s="5"/>
     </row>
+    <row r="127" spans="1:74" s="3" customFormat="1">
+      <c r="A127"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+      <c r="AJ127" s="5"/>
+      <c r="AK127" s="5"/>
+      <c r="AL127" s="5"/>
+      <c r="AM127" s="5"/>
+      <c r="AN127" s="5"/>
+      <c r="AO127" s="5"/>
+      <c r="AP127" s="5"/>
+      <c r="AQ127" s="5"/>
+      <c r="AR127" s="5"/>
+      <c r="AS127" s="5"/>
+      <c r="AT127" s="5"/>
+      <c r="AU127" s="5"/>
+      <c r="AV127" s="5"/>
+      <c r="AW127" s="5"/>
+      <c r="AX127" s="5"/>
+      <c r="AY127" s="5"/>
+      <c r="AZ127" s="5"/>
+      <c r="BA127" s="5"/>
+      <c r="BB127" s="5"/>
+      <c r="BC127" s="5"/>
+      <c r="BD127" s="5"/>
+      <c r="BE127" s="5"/>
+      <c r="BF127" s="5"/>
+      <c r="BG127" s="5"/>
+      <c r="BH127" s="5"/>
+      <c r="BI127" s="5"/>
+      <c r="BJ127" s="5"/>
+      <c r="BK127" s="5"/>
+      <c r="BL127" s="5"/>
+      <c r="BM127" s="5"/>
+      <c r="BN127" s="5"/>
+      <c r="BO127" s="5"/>
+      <c r="BP127" s="5"/>
+      <c r="BQ127" s="5"/>
+      <c r="BR127" s="5"/>
+      <c r="BS127" s="5"/>
+      <c r="BT127" s="5"/>
+      <c r="BU127" s="5"/>
+      <c r="BV127" s="5"/>
+    </row>
+    <row r="128" spans="1:74" s="3" customFormat="1">
+      <c r="A128"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="5"/>
+      <c r="AG128" s="5"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+      <c r="AJ128" s="5"/>
+      <c r="AK128" s="5"/>
+      <c r="AL128" s="5"/>
+      <c r="AM128" s="5"/>
+      <c r="AN128" s="5"/>
+      <c r="AO128" s="5"/>
+      <c r="AP128" s="5"/>
+      <c r="AQ128" s="5"/>
+      <c r="AR128" s="5"/>
+      <c r="AS128" s="5"/>
+      <c r="AT128" s="5"/>
+      <c r="AU128" s="5"/>
+      <c r="AV128" s="5"/>
+      <c r="AW128" s="5"/>
+      <c r="AX128" s="5"/>
+      <c r="AY128" s="5"/>
+      <c r="AZ128" s="5"/>
+      <c r="BA128" s="5"/>
+      <c r="BB128" s="5"/>
+      <c r="BC128" s="5"/>
+      <c r="BD128" s="5"/>
+      <c r="BE128" s="5"/>
+      <c r="BF128" s="5"/>
+      <c r="BG128" s="5"/>
+      <c r="BH128" s="5"/>
+      <c r="BI128" s="5"/>
+      <c r="BJ128" s="5"/>
+      <c r="BK128" s="5"/>
+      <c r="BL128" s="5"/>
+      <c r="BM128" s="5"/>
+      <c r="BN128" s="5"/>
+      <c r="BO128" s="5"/>
+      <c r="BP128" s="5"/>
+      <c r="BQ128" s="5"/>
+      <c r="BR128" s="5"/>
+      <c r="BS128" s="5"/>
+      <c r="BT128" s="5"/>
+      <c r="BU128" s="5"/>
+      <c r="BV128" s="5"/>
+    </row>
+    <row r="129" spans="1:74" s="3" customFormat="1">
+      <c r="A129"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+      <c r="AJ129" s="5"/>
+      <c r="AK129" s="5"/>
+      <c r="AL129" s="5"/>
+      <c r="AM129" s="5"/>
+      <c r="AN129" s="5"/>
+      <c r="AO129" s="5"/>
+      <c r="AP129" s="5"/>
+      <c r="AQ129" s="5"/>
+      <c r="AR129" s="5"/>
+      <c r="AS129" s="5"/>
+      <c r="AT129" s="5"/>
+      <c r="AU129" s="5"/>
+      <c r="AV129" s="5"/>
+      <c r="AW129" s="5"/>
+      <c r="AX129" s="5"/>
+      <c r="AY129" s="5"/>
+      <c r="AZ129" s="5"/>
+      <c r="BA129" s="5"/>
+      <c r="BB129" s="5"/>
+      <c r="BC129" s="5"/>
+      <c r="BD129" s="5"/>
+      <c r="BE129" s="5"/>
+      <c r="BF129" s="5"/>
+      <c r="BG129" s="5"/>
+      <c r="BH129" s="5"/>
+      <c r="BI129" s="5"/>
+      <c r="BJ129" s="5"/>
+      <c r="BK129" s="5"/>
+      <c r="BL129" s="5"/>
+      <c r="BM129" s="5"/>
+      <c r="BN129" s="5"/>
+      <c r="BO129" s="5"/>
+      <c r="BP129" s="5"/>
+      <c r="BQ129" s="5"/>
+      <c r="BR129" s="5"/>
+      <c r="BS129" s="5"/>
+      <c r="BT129" s="5"/>
+      <c r="BU129" s="5"/>
+      <c r="BV129" s="5"/>
+    </row>
+    <row r="130" spans="1:74" s="3" customFormat="1">
+      <c r="A130"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+      <c r="AJ130" s="5"/>
+      <c r="AK130" s="5"/>
+      <c r="AL130" s="5"/>
+      <c r="AM130" s="5"/>
+      <c r="AN130" s="5"/>
+      <c r="AO130" s="5"/>
+      <c r="AP130" s="5"/>
+      <c r="AQ130" s="5"/>
+      <c r="AR130" s="5"/>
+      <c r="AS130" s="5"/>
+      <c r="AT130" s="5"/>
+      <c r="AU130" s="5"/>
+      <c r="AV130" s="5"/>
+      <c r="AW130" s="5"/>
+      <c r="AX130" s="5"/>
+      <c r="AY130" s="5"/>
+      <c r="AZ130" s="5"/>
+      <c r="BA130" s="5"/>
+      <c r="BB130" s="5"/>
+      <c r="BC130" s="5"/>
+      <c r="BD130" s="5"/>
+      <c r="BE130" s="5"/>
+      <c r="BF130" s="5"/>
+      <c r="BG130" s="5"/>
+      <c r="BH130" s="5"/>
+      <c r="BI130" s="5"/>
+      <c r="BJ130" s="5"/>
+      <c r="BK130" s="5"/>
+      <c r="BL130" s="5"/>
+      <c r="BM130" s="5"/>
+      <c r="BN130" s="5"/>
+      <c r="BO130" s="5"/>
+      <c r="BP130" s="5"/>
+      <c r="BQ130" s="5"/>
+      <c r="BR130" s="5"/>
+      <c r="BS130" s="5"/>
+      <c r="BT130" s="5"/>
+      <c r="BU130" s="5"/>
+      <c r="BV130" s="5"/>
+    </row>
+    <row r="131" spans="1:74" s="3" customFormat="1">
+      <c r="A131"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="37"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+      <c r="AJ131" s="5"/>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="5"/>
+      <c r="AN131" s="5"/>
+      <c r="AO131" s="5"/>
+      <c r="AP131" s="5"/>
+      <c r="AQ131" s="5"/>
+      <c r="AR131" s="5"/>
+      <c r="AS131" s="5"/>
+      <c r="AT131" s="5"/>
+      <c r="AU131" s="5"/>
+      <c r="AV131" s="5"/>
+      <c r="AW131" s="5"/>
+      <c r="AX131" s="5"/>
+      <c r="AY131" s="5"/>
+      <c r="AZ131" s="5"/>
+      <c r="BA131" s="5"/>
+      <c r="BB131" s="5"/>
+      <c r="BC131" s="5"/>
+      <c r="BD131" s="5"/>
+      <c r="BE131" s="5"/>
+      <c r="BF131" s="5"/>
+      <c r="BG131" s="5"/>
+      <c r="BH131" s="5"/>
+      <c r="BI131" s="5"/>
+      <c r="BJ131" s="5"/>
+      <c r="BK131" s="5"/>
+      <c r="BL131" s="5"/>
+      <c r="BM131" s="5"/>
+      <c r="BN131" s="5"/>
+      <c r="BO131" s="5"/>
+      <c r="BP131" s="5"/>
+      <c r="BQ131" s="5"/>
+      <c r="BR131" s="5"/>
+      <c r="BS131" s="5"/>
+      <c r="BT131" s="5"/>
+      <c r="BU131" s="5"/>
+      <c r="BV131" s="5"/>
+    </row>
+    <row r="132" spans="1:74" s="3" customFormat="1">
+      <c r="A132"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+      <c r="AJ132" s="5"/>
+      <c r="AK132" s="5"/>
+      <c r="AL132" s="5"/>
+      <c r="AM132" s="5"/>
+      <c r="AN132" s="5"/>
+      <c r="AO132" s="5"/>
+      <c r="AP132" s="5"/>
+      <c r="AQ132" s="5"/>
+      <c r="AR132" s="5"/>
+      <c r="AS132" s="5"/>
+      <c r="AT132" s="5"/>
+      <c r="AU132" s="5"/>
+      <c r="AV132" s="5"/>
+      <c r="AW132" s="5"/>
+      <c r="AX132" s="5"/>
+      <c r="AY132" s="5"/>
+      <c r="AZ132" s="5"/>
+      <c r="BA132" s="5"/>
+      <c r="BB132" s="5"/>
+      <c r="BC132" s="5"/>
+      <c r="BD132" s="5"/>
+      <c r="BE132" s="5"/>
+      <c r="BF132" s="5"/>
+      <c r="BG132" s="5"/>
+      <c r="BH132" s="5"/>
+      <c r="BI132" s="5"/>
+      <c r="BJ132" s="5"/>
+      <c r="BK132" s="5"/>
+      <c r="BL132" s="5"/>
+      <c r="BM132" s="5"/>
+      <c r="BN132" s="5"/>
+      <c r="BO132" s="5"/>
+      <c r="BP132" s="5"/>
+      <c r="BQ132" s="5"/>
+      <c r="BR132" s="5"/>
+      <c r="BS132" s="5"/>
+      <c r="BT132" s="5"/>
+      <c r="BU132" s="5"/>
+      <c r="BV132" s="5"/>
+    </row>
+    <row r="133" spans="1:74" s="3" customFormat="1">
+      <c r="A133"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+      <c r="AJ133" s="5"/>
+      <c r="AK133" s="5"/>
+      <c r="AL133" s="5"/>
+      <c r="AM133" s="5"/>
+      <c r="AN133" s="5"/>
+      <c r="AO133" s="5"/>
+      <c r="AP133" s="5"/>
+      <c r="AQ133" s="5"/>
+      <c r="AR133" s="5"/>
+      <c r="AS133" s="5"/>
+      <c r="AT133" s="5"/>
+      <c r="AU133" s="5"/>
+      <c r="AV133" s="5"/>
+      <c r="AW133" s="5"/>
+      <c r="AX133" s="5"/>
+      <c r="AY133" s="5"/>
+      <c r="AZ133" s="5"/>
+      <c r="BA133" s="5"/>
+      <c r="BB133" s="5"/>
+      <c r="BC133" s="5"/>
+      <c r="BD133" s="5"/>
+      <c r="BE133" s="5"/>
+      <c r="BF133" s="5"/>
+      <c r="BG133" s="5"/>
+      <c r="BH133" s="5"/>
+      <c r="BI133" s="5"/>
+      <c r="BJ133" s="5"/>
+      <c r="BK133" s="5"/>
+      <c r="BL133" s="5"/>
+      <c r="BM133" s="5"/>
+      <c r="BN133" s="5"/>
+      <c r="BO133" s="5"/>
+      <c r="BP133" s="5"/>
+      <c r="BQ133" s="5"/>
+      <c r="BR133" s="5"/>
+      <c r="BS133" s="5"/>
+      <c r="BT133" s="5"/>
+      <c r="BU133" s="5"/>
+      <c r="BV133" s="5"/>
+    </row>
+    <row r="134" spans="1:74" s="3" customFormat="1">
+      <c r="A134"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="34"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+      <c r="AJ134" s="5"/>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="5"/>
+      <c r="AN134" s="5"/>
+      <c r="AO134" s="5"/>
+      <c r="AP134" s="5"/>
+      <c r="AQ134" s="5"/>
+      <c r="AR134" s="5"/>
+      <c r="AS134" s="5"/>
+      <c r="AT134" s="5"/>
+      <c r="AU134" s="5"/>
+      <c r="AV134" s="5"/>
+      <c r="AW134" s="5"/>
+      <c r="AX134" s="5"/>
+      <c r="AY134" s="5"/>
+      <c r="AZ134" s="5"/>
+      <c r="BA134" s="5"/>
+      <c r="BB134" s="5"/>
+      <c r="BC134" s="5"/>
+      <c r="BD134" s="5"/>
+      <c r="BE134" s="5"/>
+      <c r="BF134" s="5"/>
+      <c r="BG134" s="5"/>
+      <c r="BH134" s="5"/>
+      <c r="BI134" s="5"/>
+      <c r="BJ134" s="5"/>
+      <c r="BK134" s="5"/>
+      <c r="BL134" s="5"/>
+      <c r="BM134" s="5"/>
+      <c r="BN134" s="5"/>
+      <c r="BO134" s="5"/>
+      <c r="BP134" s="5"/>
+      <c r="BQ134" s="5"/>
+      <c r="BR134" s="5"/>
+      <c r="BS134" s="5"/>
+      <c r="BT134" s="5"/>
+      <c r="BU134" s="5"/>
+      <c r="BV134" s="5"/>
+    </row>
+    <row r="135" spans="1:74" s="3" customFormat="1">
+      <c r="A135"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="34"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="37"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+      <c r="AJ135" s="5"/>
+      <c r="AK135" s="5"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="5"/>
+      <c r="AN135" s="5"/>
+      <c r="AO135" s="5"/>
+      <c r="AP135" s="5"/>
+      <c r="AQ135" s="5"/>
+      <c r="AR135" s="5"/>
+      <c r="AS135" s="5"/>
+      <c r="AT135" s="5"/>
+      <c r="AU135" s="5"/>
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="5"/>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="5"/>
+      <c r="AZ135" s="5"/>
+      <c r="BA135" s="5"/>
+      <c r="BB135" s="5"/>
+      <c r="BC135" s="5"/>
+      <c r="BD135" s="5"/>
+      <c r="BE135" s="5"/>
+      <c r="BF135" s="5"/>
+      <c r="BG135" s="5"/>
+      <c r="BH135" s="5"/>
+      <c r="BI135" s="5"/>
+      <c r="BJ135" s="5"/>
+      <c r="BK135" s="5"/>
+      <c r="BL135" s="5"/>
+      <c r="BM135" s="5"/>
+      <c r="BN135" s="5"/>
+      <c r="BO135" s="5"/>
+      <c r="BP135" s="5"/>
+      <c r="BQ135" s="5"/>
+      <c r="BR135" s="5"/>
+      <c r="BS135" s="5"/>
+      <c r="BT135" s="5"/>
+      <c r="BU135" s="5"/>
+      <c r="BV135" s="5"/>
+    </row>
+    <row r="136" spans="1:74" s="3" customFormat="1">
+      <c r="A136"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+      <c r="AJ136" s="5"/>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="5"/>
+      <c r="AN136" s="5"/>
+      <c r="AO136" s="5"/>
+      <c r="AP136" s="5"/>
+      <c r="AQ136" s="5"/>
+      <c r="AR136" s="5"/>
+      <c r="AS136" s="5"/>
+      <c r="AT136" s="5"/>
+      <c r="AU136" s="5"/>
+      <c r="AV136" s="5"/>
+      <c r="AW136" s="5"/>
+      <c r="AX136" s="5"/>
+      <c r="AY136" s="5"/>
+      <c r="AZ136" s="5"/>
+      <c r="BA136" s="5"/>
+      <c r="BB136" s="5"/>
+      <c r="BC136" s="5"/>
+      <c r="BD136" s="5"/>
+      <c r="BE136" s="5"/>
+      <c r="BF136" s="5"/>
+      <c r="BG136" s="5"/>
+      <c r="BH136" s="5"/>
+      <c r="BI136" s="5"/>
+      <c r="BJ136" s="5"/>
+      <c r="BK136" s="5"/>
+      <c r="BL136" s="5"/>
+      <c r="BM136" s="5"/>
+      <c r="BN136" s="5"/>
+      <c r="BO136" s="5"/>
+      <c r="BP136" s="5"/>
+      <c r="BQ136" s="5"/>
+      <c r="BR136" s="5"/>
+      <c r="BS136" s="5"/>
+      <c r="BT136" s="5"/>
+      <c r="BU136" s="5"/>
+      <c r="BV136" s="5"/>
+    </row>
+    <row r="137" spans="1:74" s="3" customFormat="1">
+      <c r="A137"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+      <c r="AJ137" s="5"/>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="5"/>
+      <c r="AN137" s="5"/>
+      <c r="AO137" s="5"/>
+      <c r="AP137" s="5"/>
+      <c r="AQ137" s="5"/>
+      <c r="AR137" s="5"/>
+      <c r="AS137" s="5"/>
+      <c r="AT137" s="5"/>
+      <c r="AU137" s="5"/>
+      <c r="AV137" s="5"/>
+      <c r="AW137" s="5"/>
+      <c r="AX137" s="5"/>
+      <c r="AY137" s="5"/>
+      <c r="AZ137" s="5"/>
+      <c r="BA137" s="5"/>
+      <c r="BB137" s="5"/>
+      <c r="BC137" s="5"/>
+      <c r="BD137" s="5"/>
+      <c r="BE137" s="5"/>
+      <c r="BF137" s="5"/>
+      <c r="BG137" s="5"/>
+      <c r="BH137" s="5"/>
+      <c r="BI137" s="5"/>
+      <c r="BJ137" s="5"/>
+      <c r="BK137" s="5"/>
+      <c r="BL137" s="5"/>
+      <c r="BM137" s="5"/>
+      <c r="BN137" s="5"/>
+      <c r="BO137" s="5"/>
+      <c r="BP137" s="5"/>
+      <c r="BQ137" s="5"/>
+      <c r="BR137" s="5"/>
+      <c r="BS137" s="5"/>
+      <c r="BT137" s="5"/>
+      <c r="BU137" s="5"/>
+      <c r="BV137" s="5"/>
+    </row>
+    <row r="138" spans="1:74" s="3" customFormat="1">
+      <c r="A138"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+      <c r="AJ138" s="5"/>
+      <c r="AK138" s="5"/>
+      <c r="AL138" s="5"/>
+      <c r="AM138" s="5"/>
+      <c r="AN138" s="5"/>
+      <c r="AO138" s="5"/>
+      <c r="AP138" s="5"/>
+      <c r="AQ138" s="5"/>
+      <c r="AR138" s="5"/>
+      <c r="AS138" s="5"/>
+      <c r="AT138" s="5"/>
+      <c r="AU138" s="5"/>
+      <c r="AV138" s="5"/>
+      <c r="AW138" s="5"/>
+      <c r="AX138" s="5"/>
+      <c r="AY138" s="5"/>
+      <c r="AZ138" s="5"/>
+      <c r="BA138" s="5"/>
+      <c r="BB138" s="5"/>
+      <c r="BC138" s="5"/>
+      <c r="BD138" s="5"/>
+      <c r="BE138" s="5"/>
+      <c r="BF138" s="5"/>
+      <c r="BG138" s="5"/>
+      <c r="BH138" s="5"/>
+      <c r="BI138" s="5"/>
+      <c r="BJ138" s="5"/>
+      <c r="BK138" s="5"/>
+      <c r="BL138" s="5"/>
+      <c r="BM138" s="5"/>
+      <c r="BN138" s="5"/>
+      <c r="BO138" s="5"/>
+      <c r="BP138" s="5"/>
+      <c r="BQ138" s="5"/>
+      <c r="BR138" s="5"/>
+      <c r="BS138" s="5"/>
+      <c r="BT138" s="5"/>
+      <c r="BU138" s="5"/>
+      <c r="BV138" s="5"/>
+    </row>
+    <row r="139" spans="1:74" s="3" customFormat="1">
+      <c r="A139"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+      <c r="AJ139" s="5"/>
+      <c r="AK139" s="5"/>
+      <c r="AL139" s="5"/>
+      <c r="AM139" s="5"/>
+      <c r="AN139" s="5"/>
+      <c r="AO139" s="5"/>
+      <c r="AP139" s="5"/>
+      <c r="AQ139" s="5"/>
+      <c r="AR139" s="5"/>
+      <c r="AS139" s="5"/>
+      <c r="AT139" s="5"/>
+      <c r="AU139" s="5"/>
+      <c r="AV139" s="5"/>
+      <c r="AW139" s="5"/>
+      <c r="AX139" s="5"/>
+      <c r="AY139" s="5"/>
+      <c r="AZ139" s="5"/>
+      <c r="BA139" s="5"/>
+      <c r="BB139" s="5"/>
+      <c r="BC139" s="5"/>
+      <c r="BD139" s="5"/>
+      <c r="BE139" s="5"/>
+      <c r="BF139" s="5"/>
+      <c r="BG139" s="5"/>
+      <c r="BH139" s="5"/>
+      <c r="BI139" s="5"/>
+      <c r="BJ139" s="5"/>
+      <c r="BK139" s="5"/>
+      <c r="BL139" s="5"/>
+      <c r="BM139" s="5"/>
+      <c r="BN139" s="5"/>
+      <c r="BO139" s="5"/>
+      <c r="BP139" s="5"/>
+      <c r="BQ139" s="5"/>
+      <c r="BR139" s="5"/>
+      <c r="BS139" s="5"/>
+      <c r="BT139" s="5"/>
+      <c r="BU139" s="5"/>
+      <c r="BV139" s="5"/>
+    </row>
+    <row r="140" spans="1:74" s="3" customFormat="1">
+      <c r="A140"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="34"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="5"/>
+      <c r="AG140" s="5"/>
+      <c r="AH140" s="5"/>
+      <c r="AI140" s="5"/>
+      <c r="AJ140" s="5"/>
+      <c r="AK140" s="5"/>
+      <c r="AL140" s="5"/>
+      <c r="AM140" s="5"/>
+      <c r="AN140" s="5"/>
+      <c r="AO140" s="5"/>
+      <c r="AP140" s="5"/>
+      <c r="AQ140" s="5"/>
+      <c r="AR140" s="5"/>
+      <c r="AS140" s="5"/>
+      <c r="AT140" s="5"/>
+      <c r="AU140" s="5"/>
+      <c r="AV140" s="5"/>
+      <c r="AW140" s="5"/>
+      <c r="AX140" s="5"/>
+      <c r="AY140" s="5"/>
+      <c r="AZ140" s="5"/>
+      <c r="BA140" s="5"/>
+      <c r="BB140" s="5"/>
+      <c r="BC140" s="5"/>
+      <c r="BD140" s="5"/>
+      <c r="BE140" s="5"/>
+      <c r="BF140" s="5"/>
+      <c r="BG140" s="5"/>
+      <c r="BH140" s="5"/>
+      <c r="BI140" s="5"/>
+      <c r="BJ140" s="5"/>
+      <c r="BK140" s="5"/>
+      <c r="BL140" s="5"/>
+      <c r="BM140" s="5"/>
+      <c r="BN140" s="5"/>
+      <c r="BO140" s="5"/>
+      <c r="BP140" s="5"/>
+      <c r="BQ140" s="5"/>
+      <c r="BR140" s="5"/>
+      <c r="BS140" s="5"/>
+      <c r="BT140" s="5"/>
+      <c r="BU140" s="5"/>
+      <c r="BV140" s="5"/>
+    </row>
+    <row r="141" spans="1:74" s="3" customFormat="1">
+      <c r="A141"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+      <c r="AJ141" s="5"/>
+      <c r="AK141" s="5"/>
+      <c r="AL141" s="5"/>
+      <c r="AM141" s="5"/>
+      <c r="AN141" s="5"/>
+      <c r="AO141" s="5"/>
+      <c r="AP141" s="5"/>
+      <c r="AQ141" s="5"/>
+      <c r="AR141" s="5"/>
+      <c r="AS141" s="5"/>
+      <c r="AT141" s="5"/>
+      <c r="AU141" s="5"/>
+      <c r="AV141" s="5"/>
+      <c r="AW141" s="5"/>
+      <c r="AX141" s="5"/>
+      <c r="AY141" s="5"/>
+      <c r="AZ141" s="5"/>
+      <c r="BA141" s="5"/>
+      <c r="BB141" s="5"/>
+      <c r="BC141" s="5"/>
+      <c r="BD141" s="5"/>
+      <c r="BE141" s="5"/>
+      <c r="BF141" s="5"/>
+      <c r="BG141" s="5"/>
+      <c r="BH141" s="5"/>
+      <c r="BI141" s="5"/>
+      <c r="BJ141" s="5"/>
+      <c r="BK141" s="5"/>
+      <c r="BL141" s="5"/>
+      <c r="BM141" s="5"/>
+      <c r="BN141" s="5"/>
+      <c r="BO141" s="5"/>
+      <c r="BP141" s="5"/>
+      <c r="BQ141" s="5"/>
+      <c r="BR141" s="5"/>
+      <c r="BS141" s="5"/>
+      <c r="BT141" s="5"/>
+      <c r="BU141" s="5"/>
+      <c r="BV141" s="5"/>
+    </row>
+    <row r="142" spans="1:74" s="3" customFormat="1">
+      <c r="A142"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+      <c r="AO142" s="5"/>
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="5"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="5"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+    </row>
+    <row r="143" spans="1:74" s="3" customFormat="1">
+      <c r="A143"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="34"/>
+      <c r="J143" s="34"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="37"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+      <c r="AO143" s="5"/>
+      <c r="AP143" s="5"/>
+      <c r="AQ143" s="5"/>
+      <c r="AR143" s="5"/>
+      <c r="AS143" s="5"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+    </row>
+    <row r="144" spans="1:74" s="3" customFormat="1">
+      <c r="A144"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="34"/>
+      <c r="J144" s="34"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+      <c r="AN144" s="5"/>
+      <c r="AO144" s="5"/>
+      <c r="AP144" s="5"/>
+      <c r="AQ144" s="5"/>
+      <c r="AR144" s="5"/>
+      <c r="AS144" s="5"/>
+      <c r="AT144" s="5"/>
+      <c r="AU144" s="5"/>
+      <c r="AV144" s="5"/>
+      <c r="AW144" s="5"/>
+      <c r="AX144" s="5"/>
+      <c r="AY144" s="5"/>
+      <c r="AZ144" s="5"/>
+      <c r="BA144" s="5"/>
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
+      <c r="BF144" s="5"/>
+      <c r="BG144" s="5"/>
+      <c r="BH144" s="5"/>
+      <c r="BI144" s="5"/>
+      <c r="BJ144" s="5"/>
+      <c r="BK144" s="5"/>
+      <c r="BL144" s="5"/>
+      <c r="BM144" s="5"/>
+      <c r="BN144" s="5"/>
+      <c r="BO144" s="5"/>
+      <c r="BP144" s="5"/>
+      <c r="BQ144" s="5"/>
+      <c r="BR144" s="5"/>
+      <c r="BS144" s="5"/>
+      <c r="BT144" s="5"/>
+      <c r="BU144" s="5"/>
+      <c r="BV144" s="5"/>
+    </row>
+    <row r="145" spans="1:74" s="3" customFormat="1">
+      <c r="A145"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="5"/>
+      <c r="AN145" s="5"/>
+      <c r="AO145" s="5"/>
+      <c r="AP145" s="5"/>
+      <c r="AQ145" s="5"/>
+      <c r="AR145" s="5"/>
+      <c r="AS145" s="5"/>
+      <c r="AT145" s="5"/>
+      <c r="AU145" s="5"/>
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5"/>
+      <c r="BA145" s="5"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="5"/>
+      <c r="BI145" s="5"/>
+      <c r="BJ145" s="5"/>
+      <c r="BK145" s="5"/>
+      <c r="BL145" s="5"/>
+      <c r="BM145" s="5"/>
+      <c r="BN145" s="5"/>
+      <c r="BO145" s="5"/>
+      <c r="BP145" s="5"/>
+      <c r="BQ145" s="5"/>
+      <c r="BR145" s="5"/>
+      <c r="BS145" s="5"/>
+      <c r="BT145" s="5"/>
+      <c r="BU145" s="5"/>
+      <c r="BV145" s="5"/>
+    </row>
+    <row r="146" spans="1:74" s="3" customFormat="1">
+      <c r="A146"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="5"/>
+      <c r="AN146" s="5"/>
+      <c r="AO146" s="5"/>
+      <c r="AP146" s="5"/>
+      <c r="AQ146" s="5"/>
+      <c r="AR146" s="5"/>
+      <c r="AS146" s="5"/>
+      <c r="AT146" s="5"/>
+      <c r="AU146" s="5"/>
+      <c r="AV146" s="5"/>
+      <c r="AW146" s="5"/>
+      <c r="AX146" s="5"/>
+      <c r="AY146" s="5"/>
+      <c r="AZ146" s="5"/>
+      <c r="BA146" s="5"/>
+      <c r="BB146" s="5"/>
+      <c r="BC146" s="5"/>
+      <c r="BD146" s="5"/>
+      <c r="BE146" s="5"/>
+      <c r="BF146" s="5"/>
+      <c r="BG146" s="5"/>
+      <c r="BH146" s="5"/>
+      <c r="BI146" s="5"/>
+      <c r="BJ146" s="5"/>
+      <c r="BK146" s="5"/>
+      <c r="BL146" s="5"/>
+      <c r="BM146" s="5"/>
+      <c r="BN146" s="5"/>
+      <c r="BO146" s="5"/>
+      <c r="BP146" s="5"/>
+      <c r="BQ146" s="5"/>
+      <c r="BR146" s="5"/>
+      <c r="BS146" s="5"/>
+      <c r="BT146" s="5"/>
+      <c r="BU146" s="5"/>
+      <c r="BV146" s="5"/>
+    </row>
+    <row r="147" spans="1:74" s="3" customFormat="1">
+      <c r="A147"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="37"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="5"/>
+      <c r="AN147" s="5"/>
+      <c r="AO147" s="5"/>
+      <c r="AP147" s="5"/>
+      <c r="AQ147" s="5"/>
+      <c r="AR147" s="5"/>
+      <c r="AS147" s="5"/>
+      <c r="AT147" s="5"/>
+      <c r="AU147" s="5"/>
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="5"/>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5"/>
+      <c r="BA147" s="5"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="5"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
+      <c r="BF147" s="5"/>
+      <c r="BG147" s="5"/>
+      <c r="BH147" s="5"/>
+      <c r="BI147" s="5"/>
+      <c r="BJ147" s="5"/>
+      <c r="BK147" s="5"/>
+      <c r="BL147" s="5"/>
+      <c r="BM147" s="5"/>
+      <c r="BN147" s="5"/>
+      <c r="BO147" s="5"/>
+      <c r="BP147" s="5"/>
+      <c r="BQ147" s="5"/>
+      <c r="BR147" s="5"/>
+      <c r="BS147" s="5"/>
+      <c r="BT147" s="5"/>
+      <c r="BU147" s="5"/>
+      <c r="BV147" s="5"/>
+    </row>
+    <row r="148" spans="1:74" s="3" customFormat="1">
+      <c r="A148"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="37"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+      <c r="AJ148" s="5"/>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="5"/>
+      <c r="AN148" s="5"/>
+      <c r="AO148" s="5"/>
+      <c r="AP148" s="5"/>
+      <c r="AQ148" s="5"/>
+      <c r="AR148" s="5"/>
+      <c r="AS148" s="5"/>
+      <c r="AT148" s="5"/>
+      <c r="AU148" s="5"/>
+      <c r="AV148" s="5"/>
+      <c r="AW148" s="5"/>
+      <c r="AX148" s="5"/>
+      <c r="AY148" s="5"/>
+      <c r="AZ148" s="5"/>
+      <c r="BA148" s="5"/>
+      <c r="BB148" s="5"/>
+      <c r="BC148" s="5"/>
+      <c r="BD148" s="5"/>
+      <c r="BE148" s="5"/>
+      <c r="BF148" s="5"/>
+      <c r="BG148" s="5"/>
+      <c r="BH148" s="5"/>
+      <c r="BI148" s="5"/>
+      <c r="BJ148" s="5"/>
+      <c r="BK148" s="5"/>
+      <c r="BL148" s="5"/>
+      <c r="BM148" s="5"/>
+      <c r="BN148" s="5"/>
+      <c r="BO148" s="5"/>
+      <c r="BP148" s="5"/>
+      <c r="BQ148" s="5"/>
+      <c r="BR148" s="5"/>
+      <c r="BS148" s="5"/>
+      <c r="BT148" s="5"/>
+      <c r="BU148" s="5"/>
+      <c r="BV148" s="5"/>
+    </row>
+    <row r="149" spans="1:74" s="3" customFormat="1">
+      <c r="A149"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+      <c r="AJ149" s="5"/>
+      <c r="AK149" s="5"/>
+      <c r="AL149" s="5"/>
+      <c r="AM149" s="5"/>
+      <c r="AN149" s="5"/>
+      <c r="AO149" s="5"/>
+      <c r="AP149" s="5"/>
+      <c r="AQ149" s="5"/>
+      <c r="AR149" s="5"/>
+      <c r="AS149" s="5"/>
+      <c r="AT149" s="5"/>
+      <c r="AU149" s="5"/>
+      <c r="AV149" s="5"/>
+      <c r="AW149" s="5"/>
+      <c r="AX149" s="5"/>
+      <c r="AY149" s="5"/>
+      <c r="AZ149" s="5"/>
+      <c r="BA149" s="5"/>
+      <c r="BB149" s="5"/>
+      <c r="BC149" s="5"/>
+      <c r="BD149" s="5"/>
+      <c r="BE149" s="5"/>
+      <c r="BF149" s="5"/>
+      <c r="BG149" s="5"/>
+      <c r="BH149" s="5"/>
+      <c r="BI149" s="5"/>
+      <c r="BJ149" s="5"/>
+      <c r="BK149" s="5"/>
+      <c r="BL149" s="5"/>
+      <c r="BM149" s="5"/>
+      <c r="BN149" s="5"/>
+      <c r="BO149" s="5"/>
+      <c r="BP149" s="5"/>
+      <c r="BQ149" s="5"/>
+      <c r="BR149" s="5"/>
+      <c r="BS149" s="5"/>
+      <c r="BT149" s="5"/>
+      <c r="BU149" s="5"/>
+      <c r="BV149" s="5"/>
+    </row>
+    <row r="150" spans="1:74" s="3" customFormat="1">
+      <c r="A150"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="35"/>
+      <c r="L150" s="36"/>
+      <c r="M150" s="37"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+      <c r="AJ150" s="5"/>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="5"/>
+      <c r="AN150" s="5"/>
+      <c r="AO150" s="5"/>
+      <c r="AP150" s="5"/>
+      <c r="AQ150" s="5"/>
+      <c r="AR150" s="5"/>
+      <c r="AS150" s="5"/>
+      <c r="AT150" s="5"/>
+      <c r="AU150" s="5"/>
+      <c r="AV150" s="5"/>
+      <c r="AW150" s="5"/>
+      <c r="AX150" s="5"/>
+      <c r="AY150" s="5"/>
+      <c r="AZ150" s="5"/>
+      <c r="BA150" s="5"/>
+      <c r="BB150" s="5"/>
+      <c r="BC150" s="5"/>
+      <c r="BD150" s="5"/>
+      <c r="BE150" s="5"/>
+      <c r="BF150" s="5"/>
+      <c r="BG150" s="5"/>
+      <c r="BH150" s="5"/>
+      <c r="BI150" s="5"/>
+      <c r="BJ150" s="5"/>
+      <c r="BK150" s="5"/>
+      <c r="BL150" s="5"/>
+      <c r="BM150" s="5"/>
+      <c r="BN150" s="5"/>
+      <c r="BO150" s="5"/>
+      <c r="BP150" s="5"/>
+      <c r="BQ150" s="5"/>
+      <c r="BR150" s="5"/>
+      <c r="BS150" s="5"/>
+      <c r="BT150" s="5"/>
+      <c r="BU150" s="5"/>
+      <c r="BV150" s="5"/>
+    </row>
+    <row r="151" spans="1:74" s="3" customFormat="1">
+      <c r="A151"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="36"/>
+      <c r="M151" s="37"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+      <c r="AJ151" s="5"/>
+      <c r="AK151" s="5"/>
+      <c r="AL151" s="5"/>
+      <c r="AM151" s="5"/>
+      <c r="AN151" s="5"/>
+      <c r="AO151" s="5"/>
+      <c r="AP151" s="5"/>
+      <c r="AQ151" s="5"/>
+      <c r="AR151" s="5"/>
+      <c r="AS151" s="5"/>
+      <c r="AT151" s="5"/>
+      <c r="AU151" s="5"/>
+      <c r="AV151" s="5"/>
+      <c r="AW151" s="5"/>
+      <c r="AX151" s="5"/>
+      <c r="AY151" s="5"/>
+      <c r="AZ151" s="5"/>
+      <c r="BA151" s="5"/>
+      <c r="BB151" s="5"/>
+      <c r="BC151" s="5"/>
+      <c r="BD151" s="5"/>
+      <c r="BE151" s="5"/>
+      <c r="BF151" s="5"/>
+      <c r="BG151" s="5"/>
+      <c r="BH151" s="5"/>
+      <c r="BI151" s="5"/>
+      <c r="BJ151" s="5"/>
+      <c r="BK151" s="5"/>
+      <c r="BL151" s="5"/>
+      <c r="BM151" s="5"/>
+      <c r="BN151" s="5"/>
+      <c r="BO151" s="5"/>
+      <c r="BP151" s="5"/>
+      <c r="BQ151" s="5"/>
+      <c r="BR151" s="5"/>
+      <c r="BS151" s="5"/>
+      <c r="BT151" s="5"/>
+      <c r="BU151" s="5"/>
+      <c r="BV151" s="5"/>
+    </row>
+    <row r="152" spans="1:74" s="3" customFormat="1">
+      <c r="A152"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="35"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="37"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+      <c r="AJ152" s="5"/>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5"/>
+      <c r="AM152" s="5"/>
+      <c r="AN152" s="5"/>
+      <c r="AO152" s="5"/>
+      <c r="AP152" s="5"/>
+      <c r="AQ152" s="5"/>
+      <c r="AR152" s="5"/>
+      <c r="AS152" s="5"/>
+      <c r="AT152" s="5"/>
+      <c r="AU152" s="5"/>
+      <c r="AV152" s="5"/>
+      <c r="AW152" s="5"/>
+      <c r="AX152" s="5"/>
+      <c r="AY152" s="5"/>
+      <c r="AZ152" s="5"/>
+      <c r="BA152" s="5"/>
+      <c r="BB152" s="5"/>
+      <c r="BC152" s="5"/>
+      <c r="BD152" s="5"/>
+      <c r="BE152" s="5"/>
+      <c r="BF152" s="5"/>
+      <c r="BG152" s="5"/>
+      <c r="BH152" s="5"/>
+      <c r="BI152" s="5"/>
+      <c r="BJ152" s="5"/>
+      <c r="BK152" s="5"/>
+      <c r="BL152" s="5"/>
+      <c r="BM152" s="5"/>
+      <c r="BN152" s="5"/>
+      <c r="BO152" s="5"/>
+      <c r="BP152" s="5"/>
+      <c r="BQ152" s="5"/>
+      <c r="BR152" s="5"/>
+      <c r="BS152" s="5"/>
+      <c r="BT152" s="5"/>
+      <c r="BU152" s="5"/>
+      <c r="BV152" s="5"/>
+    </row>
+    <row r="153" spans="1:74" s="3" customFormat="1">
+      <c r="A153"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="35"/>
+      <c r="L153" s="36"/>
+      <c r="M153" s="37"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+      <c r="AJ153" s="5"/>
+      <c r="AK153" s="5"/>
+      <c r="AL153" s="5"/>
+      <c r="AM153" s="5"/>
+      <c r="AN153" s="5"/>
+      <c r="AO153" s="5"/>
+      <c r="AP153" s="5"/>
+      <c r="AQ153" s="5"/>
+      <c r="AR153" s="5"/>
+      <c r="AS153" s="5"/>
+      <c r="AT153" s="5"/>
+      <c r="AU153" s="5"/>
+      <c r="AV153" s="5"/>
+      <c r="AW153" s="5"/>
+      <c r="AX153" s="5"/>
+      <c r="AY153" s="5"/>
+      <c r="AZ153" s="5"/>
+      <c r="BA153" s="5"/>
+      <c r="BB153" s="5"/>
+      <c r="BC153" s="5"/>
+      <c r="BD153" s="5"/>
+      <c r="BE153" s="5"/>
+      <c r="BF153" s="5"/>
+      <c r="BG153" s="5"/>
+      <c r="BH153" s="5"/>
+      <c r="BI153" s="5"/>
+      <c r="BJ153" s="5"/>
+      <c r="BK153" s="5"/>
+      <c r="BL153" s="5"/>
+      <c r="BM153" s="5"/>
+      <c r="BN153" s="5"/>
+      <c r="BO153" s="5"/>
+      <c r="BP153" s="5"/>
+      <c r="BQ153" s="5"/>
+      <c r="BR153" s="5"/>
+      <c r="BS153" s="5"/>
+      <c r="BT153" s="5"/>
+      <c r="BU153" s="5"/>
+      <c r="BV153" s="5"/>
+    </row>
+    <row r="154" spans="1:74" s="3" customFormat="1">
+      <c r="A154"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="35"/>
+      <c r="L154" s="36"/>
+      <c r="M154" s="37"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+      <c r="AJ154" s="5"/>
+      <c r="AK154" s="5"/>
+      <c r="AL154" s="5"/>
+      <c r="AM154" s="5"/>
+      <c r="AN154" s="5"/>
+      <c r="AO154" s="5"/>
+      <c r="AP154" s="5"/>
+      <c r="AQ154" s="5"/>
+      <c r="AR154" s="5"/>
+      <c r="AS154" s="5"/>
+      <c r="AT154" s="5"/>
+      <c r="AU154" s="5"/>
+      <c r="AV154" s="5"/>
+      <c r="AW154" s="5"/>
+      <c r="AX154" s="5"/>
+      <c r="AY154" s="5"/>
+      <c r="AZ154" s="5"/>
+      <c r="BA154" s="5"/>
+      <c r="BB154" s="5"/>
+      <c r="BC154" s="5"/>
+      <c r="BD154" s="5"/>
+      <c r="BE154" s="5"/>
+      <c r="BF154" s="5"/>
+      <c r="BG154" s="5"/>
+      <c r="BH154" s="5"/>
+      <c r="BI154" s="5"/>
+      <c r="BJ154" s="5"/>
+      <c r="BK154" s="5"/>
+      <c r="BL154" s="5"/>
+      <c r="BM154" s="5"/>
+      <c r="BN154" s="5"/>
+      <c r="BO154" s="5"/>
+      <c r="BP154" s="5"/>
+      <c r="BQ154" s="5"/>
+      <c r="BR154" s="5"/>
+      <c r="BS154" s="5"/>
+      <c r="BT154" s="5"/>
+      <c r="BU154" s="5"/>
+      <c r="BV154" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="G3:H3"/>
@@ -12181,264 +15617,626 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="N1:BV4">
-    <cfRule type="timePeriod" dxfId="60" priority="72" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="146" priority="158" timePeriod="today">
       <formula>FLOOR(N1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:XFD6 B23 D23:J23 B26:XFD126 B24:J24 L23:XFD24 B7:B16 K22:K24 D7:XFD16">
-    <cfRule type="expression" dxfId="59" priority="65">
+  <conditionalFormatting sqref="B5:XFD6 B35 D35:J35 B36:J36 L35:XFD36 B7:B16 D7:XFD11 D12:J16 L12:XFD16 K12:K36 B63:XFD154 B38:XFD46">
+    <cfRule type="expression" dxfId="145" priority="151">
       <formula>$B5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="77">
+    <cfRule type="expression" dxfId="144" priority="163">
       <formula>$K5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:BV16 N22:BV126">
-    <cfRule type="expression" dxfId="57" priority="66">
+  <conditionalFormatting sqref="N5:BV16 N34:BV46 N63:BV154">
+    <cfRule type="expression" dxfId="143" priority="152">
       <formula>N$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="78">
+    <cfRule type="expression" dxfId="142" priority="164">
       <formula>AND($I5&lt;=N$3,$J5&gt;=N$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="79">
+    <cfRule type="expression" dxfId="141" priority="165">
       <formula>AND($G5&lt;=N$3,$H5&gt;=N$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:BV2">
-    <cfRule type="cellIs" dxfId="54" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="162" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:BV1">
-    <cfRule type="cellIs" dxfId="53" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="160" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:BV16 N22:BV126">
-    <cfRule type="expression" dxfId="52" priority="80">
+  <conditionalFormatting sqref="N3:BV16 N34:BV46 N63:BV154">
+    <cfRule type="expression" dxfId="138" priority="166">
       <formula>WEEKDAY(N$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:BV6 B23 D23 B26:BV126 B24:J24 B7:B16 K22:BV24 D7:BV16">
-    <cfRule type="expression" dxfId="51" priority="82">
+  <conditionalFormatting sqref="B5:BV6 B35 D35 B36:J36 B7:B16 K34:BV36 D7:BV11 D12:J16 L12:BV16 K12:K33 B63:BV154 B38:BV46">
+    <cfRule type="expression" dxfId="137" priority="168">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:J22 L22:XFD22 B25:XFD25">
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$B22&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B34:J34 L34:XFD34 B37:XFD37">
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>$B34&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="60">
-      <formula>$K22=1</formula>
+    <cfRule type="expression" dxfId="135" priority="146">
+      <formula>$K34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:J22 B25:BV25 E23:J23">
-    <cfRule type="expression" dxfId="48" priority="64">
-      <formula>$A22&lt;&gt;""</formula>
+  <conditionalFormatting sqref="B34:J34 B37:BV37 E35:J35">
+    <cfRule type="expression" dxfId="134" priority="150">
+      <formula>$A34&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="47" priority="56">
-      <formula>$B23&lt;&gt;""</formula>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="expression" dxfId="133" priority="142">
+      <formula>$B35&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="57">
-      <formula>$K23=1</formula>
+    <cfRule type="expression" dxfId="132" priority="143">
+      <formula>$K35=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="45" priority="54">
-      <formula>$B23&lt;&gt;""</formula>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="131" priority="140">
+      <formula>$B35&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="55">
-      <formula>$K23=1</formula>
+    <cfRule type="expression" dxfId="130" priority="141">
+      <formula>$K35=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18 D17:H18 K17:XFD18">
-    <cfRule type="expression" dxfId="43" priority="47">
+  <conditionalFormatting sqref="B17:B18 L17:XFD18 D17:H18">
+    <cfRule type="expression" dxfId="129" priority="133">
       <formula>$B17&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="49">
+    <cfRule type="expression" dxfId="128" priority="135">
       <formula>$K17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:BV18">
-    <cfRule type="expression" dxfId="41" priority="48">
+    <cfRule type="expression" dxfId="127" priority="134">
       <formula>N$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="50">
+    <cfRule type="expression" dxfId="126" priority="136">
       <formula>AND($I17&lt;=N$3,$J17&gt;=N$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="51">
+    <cfRule type="expression" dxfId="125" priority="137">
       <formula>AND($G17&lt;=N$3,$H17&gt;=N$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:BV18">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="124" priority="138">
       <formula>WEEKDAY(N$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18 D17:H18 K17:BV18">
-    <cfRule type="expression" dxfId="37" priority="53">
+  <conditionalFormatting sqref="B17:B18 L17:BV18 D17:H18">
+    <cfRule type="expression" dxfId="123" priority="139">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21 D19:H21 K19:XFD21">
-    <cfRule type="expression" dxfId="36" priority="40">
+  <conditionalFormatting sqref="B19:B21 L19:XFD21 D19:H21">
+    <cfRule type="expression" dxfId="122" priority="126">
       <formula>$B19&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="42">
+    <cfRule type="expression" dxfId="121" priority="128">
       <formula>$K19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:BV21">
-    <cfRule type="expression" dxfId="34" priority="41">
+    <cfRule type="expression" dxfId="120" priority="127">
       <formula>N$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="43">
+    <cfRule type="expression" dxfId="119" priority="129">
       <formula>AND($I19&lt;=N$3,$J19&gt;=N$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="44">
+    <cfRule type="expression" dxfId="118" priority="130">
       <formula>AND($G19&lt;=N$3,$H19&gt;=N$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:BV21">
-    <cfRule type="expression" dxfId="31" priority="45">
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>WEEKDAY(N$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21 D19:H21 K19:BV21">
-    <cfRule type="expression" dxfId="30" priority="46">
+  <conditionalFormatting sqref="B19:B21 L19:BV21 D19:H21">
+    <cfRule type="expression" dxfId="116" priority="132">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="29" priority="37">
+    <cfRule type="expression" dxfId="115" priority="123">
       <formula>$B17&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="114" priority="124">
       <formula>$K17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="113" priority="125">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="112" priority="120">
       <formula>$B18&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="111" priority="121">
       <formula>$K18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="23" priority="31">
+    <cfRule type="expression" dxfId="109" priority="117">
       <formula>$B19&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
+    <cfRule type="expression" dxfId="108" priority="118">
       <formula>$K19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="107" priority="119">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="106" priority="114">
       <formula>$B20&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="105" priority="115">
       <formula>$K20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="104" priority="116">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="103" priority="111">
       <formula>$B21&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="102" priority="112">
       <formula>$K21=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="101" priority="113">
       <formula>$A21&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="100" priority="99">
       <formula>$B17&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="99" priority="100">
       <formula>$K17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="98" priority="101">
       <formula>$A17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="97" priority="96">
       <formula>$B18&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="96" priority="97">
       <formula>$K18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="95" priority="98">
       <formula>$A18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="94" priority="93">
       <formula>$B19&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="93" priority="94">
       <formula>$K19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="92" priority="95">
       <formula>$A19&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="91" priority="90">
       <formula>$B20&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="90" priority="91">
       <formula>$K20=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="89" priority="92">
       <formula>$A20&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="88" priority="87">
       <formula>$B21&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="87" priority="88">
       <formula>$K21=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="86" priority="89">
       <formula>$A21&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B28 D22:J28 L22:XFD28">
+    <cfRule type="expression" dxfId="85" priority="80">
+      <formula>$B22&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="82">
+      <formula>$K22=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:BV28">
+    <cfRule type="expression" dxfId="83" priority="81">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="83">
+      <formula>AND($I22&lt;=N$3,$J22&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="84">
+      <formula>AND($G22&lt;=N$3,$H22&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:BV28">
+    <cfRule type="expression" dxfId="80" priority="85">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B28 D22:J28 L22:BV28">
+    <cfRule type="expression" dxfId="79" priority="86">
+      <formula>$A22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30 L29:XFD30 D29:H30">
+    <cfRule type="expression" dxfId="78" priority="73">
+      <formula>$B29&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="75">
+      <formula>$K29=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:BV30">
+    <cfRule type="expression" dxfId="76" priority="74">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>AND($I29&lt;=N$3,$J29&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="77">
+      <formula>AND($G29&lt;=N$3,$H29&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:BV30">
+    <cfRule type="expression" dxfId="73" priority="78">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30 L29:BV30 D29:H30">
+    <cfRule type="expression" dxfId="72" priority="79">
+      <formula>$A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B33 L31:XFD33 D31:H33">
+    <cfRule type="expression" dxfId="71" priority="66">
+      <formula>$B31&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="68">
+      <formula>$K31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:BV33">
+    <cfRule type="expression" dxfId="69" priority="67">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>AND($I31&lt;=N$3,$J31&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="70">
+      <formula>AND($G31&lt;=N$3,$H31&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:BV33">
+    <cfRule type="expression" dxfId="66" priority="71">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B33 L31:BV33 D31:H33">
+    <cfRule type="expression" dxfId="65" priority="72">
+      <formula>$A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="64" priority="63">
+      <formula>$B29&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>$K29=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="62" priority="65">
+      <formula>$A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="61" priority="60">
+      <formula>$B30&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>$K30=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="59" priority="62">
+      <formula>$A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="58" priority="57">
+      <formula>$B31&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>$K31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="56" priority="59">
+      <formula>$A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="55" priority="54">
+      <formula>$B32&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="55">
+      <formula>$K32=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="53" priority="56">
+      <formula>$A32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="52" priority="51">
+      <formula>$B33&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>$K33=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="50" priority="53">
+      <formula>$A33&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="49" priority="48">
+      <formula>$B29&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>$K29=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="47" priority="50">
+      <formula>$A29&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="46" priority="45">
+      <formula>$B30&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$K30=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula>$A30&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="43" priority="42">
+      <formula>$B31&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$K31=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="41" priority="44">
+      <formula>$A31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="40" priority="39">
+      <formula>$B32&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$K32=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="38" priority="41">
+      <formula>$A32&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="37" priority="36">
+      <formula>$B33&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$K33=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="35" priority="38">
+      <formula>$A33&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:XFD48">
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>$B47&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>$K47=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47:BV48">
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>AND($I47&lt;=N$3,$J47&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>AND($G47&lt;=N$3,$H47&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47:BV48">
+    <cfRule type="expression" dxfId="29" priority="34">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:BV48">
+    <cfRule type="expression" dxfId="28" priority="35">
+      <formula>$A47&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:XFD51">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>$B49&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$K49=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:BV51">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>AND($I49&lt;=N$3,$J49&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>AND($G49&lt;=N$3,$H49&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49:BV51">
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:BV51">
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>$A49&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:XFD57">
+    <cfRule type="expression" dxfId="20" priority="15">
+      <formula>$B52&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$K52=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52:BV57">
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND($I52&lt;=N$3,$J52&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>AND($G52&lt;=N$3,$H52&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52:BV57">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:BV57">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>$A52&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:XFD59">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>$B58&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$K58=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58:BV59">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>AND($I58&lt;=N$3,$J58&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND($G58&lt;=N$3,$H58&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58:BV59">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:BV59">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$A58&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:XFD62">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$B60&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$K60=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60:BV62">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>N$3=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($I60&lt;=N$3,$J60&gt;=N$3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($G60&lt;=N$3,$H60&gt;=N$3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60:BV62">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>WEEKDAY(N$3,1)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:BV62">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$A60&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
